--- a/Second part/covidsim-3.xlsx
+++ b/Second part/covidsim-3.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7653844</v>
+        <v>3826921.5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3826923.5</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -461,22 +461,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7653842.700000171</v>
+        <v>3826921.200000078</v>
       </c>
       <c r="C3">
-        <v>1.299999830150729</v>
+        <v>0.2999999216080284</v>
       </c>
       <c r="D3">
-        <v>0.8711340206185568</v>
+        <v>0.8711340206185567</v>
       </c>
       <c r="E3">
-        <v>0.1030927835051547</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="F3">
-        <v>0.02577319587628867</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3826923.5</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -490,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7653836.850005957</v>
+        <v>3826919.850001185</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.90886867299627</v>
+        <v>2.408873365461631</v>
       </c>
       <c r="E4">
-        <v>0.1929002956006959</v>
+        <v>0.1929003596216428</v>
       </c>
       <c r="F4">
-        <v>0.04822507390017397</v>
+        <v>0.0482250899054107</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3826923.799999922</v>
       </c>
       <c r="H4">
-        <v>0.008247422680412373</v>
+        <v>0.008247422680412371</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -519,25 +519,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7653826.568487631</v>
+        <v>3826919.127339676</v>
       </c>
       <c r="C5">
-        <v>10.28151832688114</v>
+        <v>0.7226615092224322</v>
       </c>
       <c r="D5">
-        <v>6.889684565651391</v>
+        <v>2.098451540015545</v>
       </c>
       <c r="E5">
-        <v>1.0082475814766</v>
+        <v>0.4412378199785121</v>
       </c>
       <c r="F5">
-        <v>0.25206189536915</v>
+        <v>0.110309454994628</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3826925.149998815</v>
       </c>
       <c r="H5">
-        <v>0.01543202364805567</v>
+        <v>0.01543202876973142</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -548,25 +548,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7653780.301970544</v>
+        <v>3826915.875367424</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>62.54988450185536</v>
+        <v>5.802666851507294</v>
       </c>
       <c r="E6">
-        <v>1.718515963557544</v>
+        <v>0.6575725796803528</v>
       </c>
       <c r="F6">
-        <v>0.4296289908893861</v>
+        <v>0.1643931449200882</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3826925.872660324</v>
       </c>
       <c r="H6">
-        <v>0.08065980651812801</v>
+        <v>0.03529902559828096</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -577,25 +577,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7653698.987808046</v>
+        <v>3826914.134570382</v>
       </c>
       <c r="C7">
-        <v>81.31416249716098</v>
+        <v>1.740797042022793</v>
       </c>
       <c r="D7">
-        <v>54.4893323753276</v>
+        <v>5.054900504663571</v>
       </c>
       <c r="E7">
-        <v>8.166957664779746</v>
+        <v>1.255785657155332</v>
       </c>
       <c r="F7">
-        <v>2.041739416194936</v>
+        <v>0.313946414288833</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3826929.124632576</v>
       </c>
       <c r="H7">
-        <v>0.1374812770846036</v>
+        <v>0.05260580637442822</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -606,25 +606,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7653333.093812346</v>
+        <v>3826906.301010432</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>494.6763336535583</v>
+        <v>13.97785645826309</v>
       </c>
       <c r="E8">
-        <v>13.78388320016499</v>
+        <v>1.776906487374404</v>
       </c>
       <c r="F8">
-        <v>3.445970800041247</v>
+        <v>0.4442266218436011</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3826930.865429618</v>
       </c>
       <c r="H8">
-        <v>0.6533566131823797</v>
+        <v>0.1004628525724266</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -635,25 +635,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7652690.057589166</v>
+        <v>3826902.107671245</v>
       </c>
       <c r="C9">
-        <v>643.0362231792643</v>
+        <v>4.193339187408136</v>
       </c>
       <c r="D9">
-        <v>430.9293834404709</v>
+        <v>12.17658629611578</v>
       </c>
       <c r="E9">
-        <v>64.78144337063492</v>
+        <v>3.217922617092249</v>
       </c>
       <c r="F9">
-        <v>16.19536084265873</v>
+        <v>0.8044806542730623</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3826938.698989568</v>
       </c>
       <c r="H9">
-        <v>1.102710656013199</v>
+        <v>0.1421525189899524</v>
       </c>
       <c r="I9">
         <v>7</v>
@@ -664,25 +664,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7649797.628566012</v>
+        <v>3826883.237801021</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3910.904099520404</v>
+        <v>33.67067022291677</v>
       </c>
       <c r="E10">
-        <v>109.1738675746059</v>
+        <v>4.473223004981758</v>
       </c>
       <c r="F10">
-        <v>27.29346689365147</v>
+        <v>1.11830575124544</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3826942.892328755</v>
       </c>
       <c r="H10">
-        <v>5.182515469650793</v>
+        <v>0.2574338093673799</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -693,25 +693,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7644716.141760638</v>
+        <v>3826873.136703587</v>
       </c>
       <c r="C11">
-        <v>5081.486805374078</v>
+        <v>10.10109743389939</v>
       </c>
       <c r="D11">
-        <v>3406.921612468806</v>
+        <v>29.331666328211</v>
       </c>
       <c r="E11">
-        <v>512.3598572158847</v>
+        <v>7.944426120746375</v>
       </c>
       <c r="F11">
-        <v>128.0899643039712</v>
+        <v>1.986106530186594</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3826961.762198979</v>
       </c>
       <c r="H11">
-        <v>8.73390940596847</v>
+        <v>0.3578578403985406</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -722,25 +722,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7621926.363409781</v>
+        <v>3826827.682673327</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>30841.7453934702</v>
+        <v>81.10707143554771</v>
       </c>
       <c r="E12">
-        <v>861.512957399079</v>
+        <v>10.96820419021383</v>
       </c>
       <c r="F12">
-        <v>215.3782393497698</v>
+        <v>2.742051047553457</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3826971.863296413</v>
       </c>
       <c r="H12">
-        <v>40.98878857727078</v>
+        <v>0.6355540896597099</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -751,25 +751,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7581999.298516192</v>
+        <v>3826803.351154758</v>
       </c>
       <c r="C13">
-        <v>39927.06489359029</v>
+        <v>24.33151856851951</v>
       </c>
       <c r="D13">
-        <v>26867.29366750755</v>
+        <v>70.65512924024517</v>
       </c>
       <c r="E13">
-        <v>4041.074338169204</v>
+        <v>19.32975794645587</v>
       </c>
       <c r="F13">
-        <v>1010.268584542301</v>
+        <v>4.832439486613967</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3827017.317326673</v>
       </c>
       <c r="H13">
-        <v>68.92103659192632</v>
+        <v>0.8774563352171063</v>
       </c>
       <c r="I13">
         <v>11</v>
@@ -780,25 +780,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7407006.128903336</v>
+        <v>3826693.864596347</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>238483.6148896522</v>
+        <v>195.3689313260518</v>
       </c>
       <c r="E14">
-        <v>6684.204965609566</v>
+        <v>26.61317786117283</v>
       </c>
       <c r="F14">
-        <v>1671.051241402391</v>
+        <v>6.653294465293207</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>3827041.648845242</v>
       </c>
       <c r="H14">
-        <v>323.2859470535363</v>
+        <v>1.546380635716469</v>
       </c>
       <c r="I14">
         <v>12</v>
@@ -809,25 +809,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7106975.951094681</v>
+        <v>3826635.257418582</v>
       </c>
       <c r="C15">
-        <v>300030.1778086543</v>
+        <v>58.60717776527855</v>
       </c>
       <c r="D15">
-        <v>207751.1902904702</v>
+        <v>170.1925226500142</v>
       </c>
       <c r="E15">
-        <v>31270.14464495516</v>
+        <v>46.75430480200291</v>
       </c>
       <c r="F15">
-        <v>7817.53616123879</v>
+        <v>11.68857620050073</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3827151.135403653</v>
       </c>
       <c r="H15">
-        <v>534.7363972487653</v>
+        <v>2.129054228893827</v>
       </c>
       <c r="I15">
         <v>13</v>
@@ -838,25 +838,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5995094.035212267</v>
+        <v>3826371.555736957</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1601162.862332118</v>
+        <v>470.5738224536931</v>
       </c>
       <c r="E16">
-        <v>46070.48196449356</v>
+        <v>64.29635247172494</v>
       </c>
       <c r="F16">
-        <v>11517.62049112339</v>
+        <v>16.07408811793124</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3827209.742581418</v>
       </c>
       <c r="H16">
-        <v>2501.611571596413</v>
+        <v>3.740344384160232</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -867,25 +867,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4364690.165917569</v>
+        <v>3826230.403914119</v>
       </c>
       <c r="C17">
-        <v>1630403.869294698</v>
+        <v>141.1518228376371</v>
       </c>
       <c r="D17">
-        <v>1394827.441928494</v>
+        <v>409.9328659519285</v>
       </c>
       <c r="E17">
-        <v>211138.8182873923</v>
+        <v>112.8091176731366</v>
       </c>
       <c r="F17">
-        <v>52784.70457184807</v>
+        <v>28.20227941828416</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3827473.444263043</v>
       </c>
       <c r="H17">
-        <v>3685.638557159485</v>
+        <v>5.143708197737996</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -896,25 +896,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1826536.238414234</v>
+        <v>3825595.398341135</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5583999.434402243</v>
+        <v>1133.28980283425</v>
       </c>
       <c r="E18">
-        <v>194647.4617468182</v>
+        <v>155.0494848246555</v>
       </c>
       <c r="F18">
-        <v>48661.86543670456</v>
+        <v>38.76237120616388</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3827614.596085881</v>
       </c>
       <c r="H18">
-        <v>16891.10546299139</v>
+        <v>9.024729413850931</v>
       </c>
       <c r="I18">
         <v>16</v>
@@ -925,25 +925,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>94179.42704865617</v>
+        <v>3825255.529301087</v>
       </c>
       <c r="C19">
-        <v>1732356.811365578</v>
+        <v>339.8690400479477</v>
       </c>
       <c r="D19">
-        <v>4864411.878422572</v>
+        <v>987.2473024690119</v>
       </c>
       <c r="E19">
-        <v>770317.506530555</v>
+        <v>271.8834851168464</v>
       </c>
       <c r="F19">
-        <v>192579.3766326387</v>
+        <v>67.97087127921159</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>3828249.601658865</v>
       </c>
       <c r="H19">
-        <v>15571.79693974546</v>
+        <v>12.40395878597244</v>
       </c>
       <c r="I19">
         <v>17</v>
@@ -954,25 +954,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8149.35635920301</v>
+        <v>3823727.148439577</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6854125.394112743</v>
+        <v>2728.425097603338</v>
       </c>
       <c r="E20">
-        <v>633256.1996224429</v>
+        <v>373.5411702558832</v>
       </c>
       <c r="F20">
-        <v>158314.0499056107</v>
+        <v>93.38529256397081</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>3828589.470698913</v>
       </c>
       <c r="H20">
-        <v>61625.4005224444</v>
+        <v>21.75067880934771</v>
       </c>
       <c r="I20">
         <v>18</v>
@@ -983,25 +983,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3822909.30435325</v>
       </c>
       <c r="C21">
-        <v>9485.563539878976</v>
+        <v>817.8440863270513</v>
       </c>
       <c r="D21">
-        <v>5969818.309124178</v>
+        <v>2376.823925231773</v>
       </c>
       <c r="E21">
-        <v>1339632.901868755</v>
+        <v>654.8221081531345</v>
       </c>
       <c r="F21">
-        <v>334908.2254671887</v>
+        <v>163.7055270382836</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3830117.851560423</v>
       </c>
       <c r="H21">
-        <v>50660.49596979544</v>
+        <v>29.88329362047066</v>
       </c>
       <c r="I21">
         <v>19</v>
@@ -1012,25 +1012,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3819234.96808885</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5223550.993890434</v>
+        <v>6563.584219231052</v>
       </c>
       <c r="E22">
-        <v>1944235.204887653</v>
+        <v>899.1581535354575</v>
       </c>
       <c r="F22">
-        <v>486058.8012219134</v>
+        <v>224.7895383838644</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>3830935.69564675</v>
       </c>
       <c r="H22">
-        <v>107170.6321495004</v>
+        <v>52.38576865225076</v>
       </c>
       <c r="I22">
         <v>20</v>
@@ -1041,25 +1041,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>3817269.848306617</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1965.119782233639</v>
       </c>
       <c r="D23">
-        <v>4550412.979213831</v>
+        <v>5717.761510567256</v>
       </c>
       <c r="E23">
-        <v>2482745.616628936</v>
+        <v>1575.816320466494</v>
       </c>
       <c r="F23">
-        <v>620686.4041572339</v>
+        <v>393.9540801166235</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3834610.03191115</v>
       </c>
       <c r="H23">
-        <v>155538.8163910123</v>
+        <v>71.9326522828366</v>
       </c>
       <c r="I23">
         <v>21</v>
@@ -1070,25 +1070,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>3808461.214627401</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3964019.55405741</v>
+        <v>15759.72479353596</v>
       </c>
       <c r="E24">
-        <v>2951860.356754073</v>
+        <v>2161.248463250101</v>
       </c>
       <c r="F24">
-        <v>737965.0891885182</v>
+        <v>540.3121158125252</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>3836575.151693383</v>
       </c>
       <c r="H24">
-        <v>198619.6493303149</v>
+        <v>126.0653056373195</v>
       </c>
       <c r="I24">
         <v>22</v>
@@ -1099,25 +1099,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3803756.104924026</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4705.109703375249</v>
       </c>
       <c r="D25">
-        <v>3453192.291936609</v>
+        <v>13728.83242323494</v>
       </c>
       <c r="E25">
-        <v>3360522.166450713</v>
+        <v>3785.962359490923</v>
       </c>
       <c r="F25">
-        <v>840130.5416126782</v>
+        <v>946.4905898727307</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3845383.785372599</v>
       </c>
       <c r="H25">
-        <v>236148.8285403258</v>
+        <v>172.8998770600081</v>
       </c>
       <c r="I25">
         <v>23</v>
@@ -1128,25 +1128,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>3782780.115504916</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>3008193.285243747</v>
+        <v>37669.63949909175</v>
       </c>
       <c r="E26">
-        <v>3716521.371805003</v>
+        <v>5178.195996793518</v>
       </c>
       <c r="F26">
-        <v>929130.3429512507</v>
+        <v>1294.54899919838</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>3850088.895075974</v>
       </c>
       <c r="H26">
-        <v>268841.773316057</v>
+        <v>302.8769887592738</v>
       </c>
       <c r="I26">
         <v>24</v>
@@ -1157,25 +1157,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>3771609.575997879</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>11170.53950703754</v>
       </c>
       <c r="D27">
-        <v>2620539.51137213</v>
+        <v>32815.3045120954</v>
       </c>
       <c r="E27">
-        <v>4026644.390902296</v>
+        <v>9061.663986390606</v>
       </c>
       <c r="F27">
-        <v>1006661.097725574</v>
+        <v>2265.415996597651</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3871064.884495084</v>
       </c>
       <c r="H27">
-        <v>297321.7097444002</v>
+        <v>414.2556797434814</v>
       </c>
       <c r="I27">
         <v>25</v>
@@ -1186,25 +1186,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3722449.554558816</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>2282841.120731391</v>
+        <v>89080.250654741</v>
       </c>
       <c r="E28">
-        <v>4296803.103414887</v>
+        <v>12314.15582915411</v>
       </c>
       <c r="F28">
-        <v>1074200.775853722</v>
+        <v>3078.538957288528</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3882235.424002121</v>
       </c>
       <c r="H28">
-        <v>322131.5512721837</v>
+        <v>724.9331189112485</v>
       </c>
       <c r="I28">
         <v>26</v>
@@ -1215,25 +1215,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>3696455.032377895</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>25994.52218092175</v>
       </c>
       <c r="D29">
-        <v>1988660.563936109</v>
+        <v>77600.83691057334</v>
       </c>
       <c r="E29">
-        <v>4532147.548851113</v>
+        <v>21497.68682448824</v>
       </c>
       <c r="F29">
-        <v>1133036.887212778</v>
+        <v>5374.421706122059</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3931395.445441184</v>
       </c>
       <c r="H29">
-        <v>343744.2482731909</v>
+        <v>985.1324663323289</v>
       </c>
       <c r="I29">
         <v>27</v>
@@ -1244,25 +1244,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3585441.96646259</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1732389.872707229</v>
+        <v>205496.7754458203</v>
       </c>
       <c r="E30">
-        <v>4737164.101834217</v>
+        <v>28787.00647327253</v>
       </c>
       <c r="F30">
-        <v>1184291.025458554</v>
+        <v>7196.751618318132</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>3957389.967622105</v>
       </c>
       <c r="H30">
-        <v>362571.8039080891</v>
+        <v>1719.814945959059</v>
       </c>
       <c r="I30">
         <v>28</v>
@@ -1273,25 +1273,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3527683.015557037</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>57758.95090555267</v>
       </c>
       <c r="D31">
-        <v>1509143.755090318</v>
+        <v>179015.2322182661</v>
       </c>
       <c r="E31">
-        <v>4915760.995927745</v>
+        <v>49972.24105531586</v>
       </c>
       <c r="F31">
-        <v>1228940.248981936</v>
+        <v>12493.06026382896</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>4068403.03353741</v>
       </c>
       <c r="H31">
-        <v>378973.1281467373</v>
+        <v>2302.960517861803</v>
       </c>
       <c r="I31">
         <v>29</v>
@@ -1302,25 +1302,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3296908.7044534</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1314666.467063215</v>
+        <v>448937.2341761567</v>
       </c>
       <c r="E32">
-        <v>5071342.826349428</v>
+        <v>64861.24909635475</v>
       </c>
       <c r="F32">
-        <v>1267835.706587357</v>
+        <v>16215.31227408869</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>4126161.984442963</v>
       </c>
       <c r="H32">
-        <v>393260.8796742196</v>
+        <v>3997.779284425269</v>
       </c>
       <c r="I32">
         <v>30</v>
@@ -1331,25 +1331,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>3180880.349415485</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>116028.355037914</v>
       </c>
       <c r="D33">
-        <v>1145250.685225172</v>
+        <v>391084.4978132498</v>
       </c>
       <c r="E33">
-        <v>5206875.451819862</v>
+        <v>111143.4381866802</v>
       </c>
       <c r="F33">
-        <v>1301718.862954966</v>
+        <v>27785.85954667005</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>4356936.295546601</v>
       </c>
       <c r="H33">
-        <v>405707.4261079542</v>
+        <v>5188.89992770838</v>
       </c>
       <c r="I33">
         <v>31</v>
@@ -1360,25 +1360,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2775420.098284707</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>997666.8340363612</v>
+        <v>881084.0451567181</v>
       </c>
       <c r="E34">
-        <v>5324942.532770911</v>
+        <v>136334.6852468605</v>
       </c>
       <c r="F34">
-        <v>1331235.633192728</v>
+        <v>34083.67131171512</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>4472964.650584515</v>
       </c>
       <c r="H34">
-        <v>416550.036145589</v>
+        <v>8891.475054934415</v>
       </c>
       <c r="I34">
         <v>32</v>
@@ -1389,25 +1389,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2583722.066730166</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>191698.0315545412</v>
       </c>
       <c r="D35">
-        <v>869101.5203718817</v>
+        <v>767542.2867602337</v>
       </c>
       <c r="E35">
-        <v>5427794.783702495</v>
+        <v>227168.0919640479</v>
       </c>
       <c r="F35">
-        <v>1356948.695925624</v>
+        <v>56792.02299101197</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>4878424.901715294</v>
       </c>
       <c r="H35">
-        <v>425995.4026216729</v>
+        <v>10906.77481974884</v>
       </c>
       <c r="I35">
         <v>33</v>
@@ -1418,25 +1418,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2049527.495926081</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>757103.9017672577</v>
+        <v>1454240.786385858</v>
       </c>
       <c r="E36">
-        <v>5517392.878586194</v>
+        <v>258523.3741504486</v>
       </c>
       <c r="F36">
-        <v>1379348.219646548</v>
+        <v>64630.84353761215</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>5070122.933269834</v>
       </c>
       <c r="H36">
-        <v>434223.5826961996</v>
+        <v>18173.44735712383</v>
       </c>
       <c r="I36">
         <v>34</v>
@@ -1447,25 +1447,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1815879.716746206</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>233647.7791798749</v>
       </c>
       <c r="D37">
-        <v>659538.965972508</v>
+        <v>1266838.623191804</v>
       </c>
       <c r="E37">
-        <v>5595444.827221992</v>
+        <v>408445.1047056918</v>
       </c>
       <c r="F37">
-        <v>1398861.206805498</v>
+        <v>102111.276176423</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>5604317.504073919</v>
       </c>
       <c r="H37">
-        <v>441391.4302868955</v>
+        <v>20681.86993203589</v>
       </c>
       <c r="I37">
         <v>35</v>
@@ -1476,25 +1476,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1332290.251799785</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>574546.8311822363</v>
+        <v>1945757.7071771</v>
       </c>
       <c r="E38">
-        <v>5663438.53505421</v>
+        <v>439099.6328184922</v>
       </c>
       <c r="F38">
-        <v>1415859.633763552</v>
+        <v>109774.9082046231</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>5837965.283253794</v>
       </c>
       <c r="H38">
-        <v>447635.5861777594</v>
+        <v>32675.60837645534</v>
       </c>
       <c r="I38">
         <v>36</v>
@@ -1505,25 +1505,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1129073.64428006</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>203216.607519725</v>
       </c>
       <c r="D39">
-        <v>500507.2910814328</v>
+        <v>1695015.734602731</v>
       </c>
       <c r="E39">
-        <v>5722670.167134854</v>
+        <v>639693.2108779871</v>
       </c>
       <c r="F39">
-        <v>1430667.541783714</v>
+        <v>159923.3027194968</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>6321554.748200215</v>
       </c>
       <c r="H39">
-        <v>453075.0828043368</v>
+        <v>35127.97062547938</v>
       </c>
       <c r="I39">
         <v>37</v>
@@ -1534,25 +1534,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>816039.0793909797</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>436008.9288286709</v>
+        <v>2162338.46614127</v>
       </c>
       <c r="E40">
-        <v>5774268.856937064</v>
+        <v>678835.9635742003</v>
       </c>
       <c r="F40">
-        <v>1443567.214234266</v>
+        <v>169708.9908935501</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>6524771.35571994</v>
       </c>
       <c r="H40">
-        <v>457813.6133707883</v>
+        <v>51175.45687023897</v>
       </c>
       <c r="I40">
         <v>38</v>
@@ -1563,25 +1563,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>677712.3149026766</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>138326.764488303</v>
       </c>
       <c r="D41">
-        <v>379822.2111961101</v>
+        <v>1883686.601947807</v>
       </c>
       <c r="E41">
-        <v>5819218.231043112</v>
+        <v>901757.4549289703</v>
       </c>
       <c r="F41">
-        <v>1454804.557760778</v>
+        <v>225439.3637322426</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>6837805.920609021</v>
       </c>
       <c r="H41">
-        <v>461941.5085549651</v>
+        <v>54306.87708593602</v>
       </c>
       <c r="I41">
         <v>39</v>
@@ -1592,25 +1592,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>508257.4454875995</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>330876.0499594981</v>
+        <v>2113268.243666627</v>
       </c>
       <c r="E42">
-        <v>5858375.160032402</v>
+        <v>964317.448676619</v>
       </c>
       <c r="F42">
-        <v>1464593.7900081</v>
+        <v>241079.3621691547</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>6976132.685097324</v>
       </c>
       <c r="H42">
-        <v>465537.458483449</v>
+        <v>72140.59639431763</v>
       </c>
       <c r="I42">
         <v>40</v>
@@ -1621,25 +1621,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>424057.8580261811</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>84199.58746141833</v>
       </c>
       <c r="D43">
-        <v>288237.383727604</v>
+        <v>1840939.861750824</v>
       </c>
       <c r="E43">
-        <v>5892486.093017917</v>
+        <v>1182180.154209261</v>
       </c>
       <c r="F43">
-        <v>1473121.523254479</v>
+        <v>295545.0385523152</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>7145587.5545124</v>
       </c>
       <c r="H43">
-        <v>468670.0128025921</v>
+        <v>77145.39589412951</v>
       </c>
       <c r="I43">
         <v>41</v>
@@ -1650,25 +1650,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>335045.4624153241</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>251093.3909792014</v>
+        <v>1908375.169565791</v>
       </c>
       <c r="E44">
-        <v>5922201.287216639</v>
+        <v>1266801.494415108</v>
       </c>
       <c r="F44">
-        <v>1480550.32180416</v>
+        <v>316700.3736037769</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>7229787.141973819</v>
       </c>
       <c r="H44">
-        <v>471398.8874414334</v>
+        <v>94574.41233674086</v>
       </c>
       <c r="I44">
         <v>42</v>
@@ -1679,25 +1679,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>284922.2283167167</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>50123.23409860741</v>
       </c>
       <c r="D45">
-        <v>218735.995234459</v>
+        <v>1662450.534312468</v>
       </c>
       <c r="E45">
-        <v>5948087.203812433</v>
+        <v>1463541.202617767</v>
       </c>
       <c r="F45">
-        <v>1487021.800953108</v>
+        <v>365885.3006544416</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>7318799.537584675</v>
       </c>
       <c r="H45">
-        <v>473776.1029773311</v>
+        <v>101344.1195532086</v>
       </c>
       <c r="I45">
         <v>43</v>
@@ -1708,25 +1708,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>236162.6476263992</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>190548.3669825957</v>
+        <v>1643000.105652373</v>
       </c>
       <c r="E46">
-        <v>5970637.306413922</v>
+        <v>1558207.797376983</v>
       </c>
       <c r="F46">
-        <v>1492659.326603481</v>
+        <v>389551.9493442457</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>7368922.771683283</v>
       </c>
       <c r="H46">
-        <v>475846.9763049947</v>
+        <v>117083.2962094213</v>
       </c>
       <c r="I46">
         <v>44</v>
@@ -1737,25 +1737,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>205745.3667694194</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>30417.28085697983</v>
       </c>
       <c r="D47">
-        <v>165993.1650518488</v>
+        <v>1431273.287913665</v>
       </c>
       <c r="E47">
-        <v>5990281.46795852</v>
+        <v>1727589.251567949</v>
       </c>
       <c r="F47">
-        <v>1497570.36698963</v>
+        <v>431897.3128919872</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>7417682.352373601</v>
       </c>
       <c r="H47">
-        <v>477650.9845131138</v>
+        <v>124656.6237901586</v>
       </c>
       <c r="I47">
         <v>45</v>
@@ -1766,25 +1766,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>177386.1136632257</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>144602.2932668168</v>
+        <v>1373291.253905415</v>
       </c>
       <c r="E48">
-        <v>6007394.165386546</v>
+        <v>1820996.105945088</v>
       </c>
       <c r="F48">
-        <v>1501848.541346637</v>
+        <v>455249.0264862719</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>7448099.633230581</v>
       </c>
       <c r="H48">
-        <v>479222.5174366816</v>
+        <v>138207.1401254359</v>
       </c>
       <c r="I48">
         <v>46</v>
@@ -1795,25 +1795,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>158289.6100007152</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>19096.50366251052</v>
       </c>
       <c r="D49">
-        <v>125967.9771241858</v>
+        <v>1196320.731494923</v>
       </c>
       <c r="E49">
-        <v>6022301.618300652</v>
+        <v>1962572.523873481</v>
       </c>
       <c r="F49">
-        <v>1505575.404575163</v>
+        <v>490643.1309683702</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>7476458.886336775</v>
       </c>
       <c r="H49">
-        <v>480591.5332309237</v>
+        <v>145679.688475607</v>
       </c>
       <c r="I49">
         <v>47</v>
@@ -1824,25 +1824,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>140828.8427591667</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>109734.9903813783</v>
+        <v>1126264.773983304</v>
       </c>
       <c r="E50">
-        <v>6035288.007694896</v>
+        <v>2047863.106606024</v>
       </c>
       <c r="F50">
-        <v>1508822.001923724</v>
+        <v>511965.7766515059</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>7495555.389999284</v>
       </c>
       <c r="H50">
-        <v>481784.1294640522</v>
+        <v>157005.8019098785</v>
       </c>
       <c r="I50">
         <v>48</v>
@@ -1853,25 +1853,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>128395.0478683256</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>12433.79489084112</v>
       </c>
       <c r="D51">
-        <v>95593.88337346871</v>
+        <v>981127.5608411256</v>
       </c>
       <c r="E51">
-        <v>6046600.893301224</v>
+        <v>2163972.877119767</v>
       </c>
       <c r="F51">
-        <v>1511650.223325306</v>
+        <v>540993.2192799416</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>7513016.157240833</v>
       </c>
       <c r="H51">
-        <v>482823.0406155917</v>
+        <v>163829.0485284819</v>
       </c>
       <c r="I51">
         <v>49</v>
@@ -1882,25 +1882,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>117109.8355259822</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>83275.08396967121</v>
+        <v>912097.6361104895</v>
       </c>
       <c r="E52">
-        <v>6056455.932824263</v>
+        <v>2238172.022690823</v>
       </c>
       <c r="F52">
-        <v>1514113.983206066</v>
+        <v>559543.0056727057</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>7525449.952131675</v>
       </c>
       <c r="H52">
-        <v>483728.0714640979</v>
+        <v>173117.8301695813</v>
       </c>
       <c r="I52">
         <v>50</v>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>108736.3497173302</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>8373.48580865198</v>
       </c>
       <c r="D53">
-        <v>72543.75871584759</v>
+        <v>794559.2809416119</v>
       </c>
       <c r="E53">
-        <v>6065040.993027322</v>
+        <v>2332202.706825925</v>
       </c>
       <c r="F53">
-        <v>1516260.24825683</v>
+        <v>583050.6767064811</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>7536735.164474018</v>
       </c>
       <c r="H53">
-        <v>484516.4746259411</v>
+        <v>179053.7618152658</v>
       </c>
       <c r="I53">
         <v>51</v>
@@ -1940,25 +1940,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>101146.5794027531</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>63195.33620091878</v>
+        <v>732307.3740663542</v>
       </c>
       <c r="E54">
-        <v>6072519.731039265</v>
+        <v>2394774.837224714</v>
       </c>
       <c r="F54">
-        <v>1518129.932759816</v>
+        <v>598693.7093061785</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>7545108.65028267</v>
       </c>
       <c r="H54">
-        <v>485203.2794421858</v>
+        <v>186576.216546074</v>
       </c>
       <c r="I54">
         <v>52</v>
@@ -1969,25 +1969,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>95340.05580906467</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>5806.523593688465</v>
       </c>
       <c r="D55">
-        <v>55051.6073090478</v>
+        <v>637937.8670990405</v>
       </c>
       <c r="E55">
-        <v>6079034.714152762</v>
+        <v>2470270.442798565</v>
       </c>
       <c r="F55">
-        <v>1519758.67853819</v>
+        <v>617567.6106996412</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>7552698.420597247</v>
       </c>
       <c r="H55">
-        <v>485801.5784831412</v>
+        <v>191581.9869779771</v>
       </c>
       <c r="I55">
         <v>53</v>
@@ -1998,25 +1998,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>90069.41727062612</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>47957.32801664474</v>
+        <v>584403.1822458474</v>
       </c>
       <c r="E56">
-        <v>6084710.137586685</v>
+        <v>2521959.920386821</v>
       </c>
       <c r="F56">
-        <v>1521177.534396671</v>
+        <v>630489.9800967053</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>7558504.944190935</v>
       </c>
       <c r="H56">
-        <v>486322.777132221</v>
+        <v>197621.6354238852</v>
       </c>
       <c r="I56">
         <v>54</v>
@@ -2027,25 +2027,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>85943.11049989979</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>4126.30677072632</v>
       </c>
       <c r="D57">
-        <v>41777.25997326268</v>
+        <v>509093.4938121042</v>
       </c>
       <c r="E57">
-        <v>6089654.19202139</v>
+        <v>2582207.671133816</v>
       </c>
       <c r="F57">
-        <v>1522413.548005348</v>
+        <v>645551.9177834539</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>7563775.582729374</v>
       </c>
       <c r="H57">
-        <v>486776.8110069348</v>
+        <v>201756.7936309457</v>
       </c>
       <c r="I57">
         <v>55</v>
@@ -2056,25 +2056,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>82188.10179326811</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>36393.59245093501</v>
+        <v>464346.4935379146</v>
       </c>
       <c r="E58">
-        <v>6093961.126039253</v>
+        <v>2624310.323735054</v>
       </c>
       <c r="F58">
-        <v>1523490.281509813</v>
+        <v>656077.5809337635</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>7567901.8895001</v>
       </c>
       <c r="H58">
-        <v>487172.3353617112</v>
+        <v>206576.6136907053</v>
       </c>
       <c r="I58">
         <v>56</v>
@@ -2085,25 +2085,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>79196.3696472755</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2991.732145992601</v>
       </c>
       <c r="D59">
-        <v>31703.69651653617</v>
+        <v>404508.0278758122</v>
       </c>
       <c r="E59">
-        <v>6097713.042786772</v>
+        <v>2672181.096264736</v>
       </c>
       <c r="F59">
-        <v>1524428.260696693</v>
+        <v>668045.2740661839</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>7571656.898206732</v>
       </c>
       <c r="H59">
-        <v>487516.8900831402</v>
+        <v>209944.8258988043</v>
       </c>
       <c r="I59">
         <v>57</v>
@@ -2114,25 +2114,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>76466.21580901697</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>27618.16861492067</v>
+        <v>367782.7515145406</v>
       </c>
       <c r="E60">
-        <v>6100981.465108064</v>
+        <v>2706138.826141154</v>
       </c>
       <c r="F60">
-        <v>1525245.366277016</v>
+        <v>676534.7065352885</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>7574648.630352724</v>
       </c>
       <c r="H60">
-        <v>487817.0434229418</v>
+        <v>213774.4877011789</v>
       </c>
       <c r="I60">
         <v>58</v>
@@ -2143,25 +2143,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>74261.6018994216</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>2204.613909595367</v>
       </c>
       <c r="D61">
-        <v>24059.12626763708</v>
+        <v>320388.0670410173</v>
       </c>
       <c r="E61">
-        <v>6103828.69898589</v>
+        <v>2744054.573719973</v>
       </c>
       <c r="F61">
-        <v>1525957.174746473</v>
+        <v>686013.6434299932</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>7577378.784190983</v>
       </c>
       <c r="H61">
-        <v>488078.5172086451</v>
+        <v>216491.1060912923</v>
       </c>
       <c r="I61">
         <v>59</v>
@@ -2172,25 +2172,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>72244.38504186834</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>20958.72339809622</v>
+        <v>290614.5818090482</v>
       </c>
       <c r="E62">
-        <v>6106309.021281524</v>
+        <v>2771250.826519267</v>
       </c>
       <c r="F62">
-        <v>1526577.255320381</v>
+        <v>692812.7066298167</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>7579583.398100578</v>
       </c>
       <c r="H62">
-        <v>488306.2959188712</v>
+        <v>219524.3658975978</v>
       </c>
       <c r="I62">
         <v>60</v>
@@ -2201,25 +2201,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>70598.52429498927</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1645.860746879073</v>
       </c>
       <c r="D63">
-        <v>18257.85698081578</v>
+        <v>253164.2491016967</v>
       </c>
       <c r="E63">
-        <v>6108469.714415348</v>
+        <v>2801211.092685148</v>
       </c>
       <c r="F63">
-        <v>1527117.428603837</v>
+        <v>700302.773171287</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>7581600.614958132</v>
       </c>
       <c r="H63">
-        <v>488504.7217025219</v>
+        <v>221700.0661215413</v>
       </c>
       <c r="I63">
         <v>61</v>
@@ -2230,25 +2230,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>69089.0071854867</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>15905.04035957663</v>
+        <v>229232.5087518547</v>
       </c>
       <c r="E64">
-        <v>6110351.967712339</v>
+        <v>2822880.787250127</v>
       </c>
       <c r="F64">
-        <v>1527587.991928085</v>
+        <v>705720.1968125318</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>7583246.475705011</v>
       </c>
       <c r="H64">
-        <v>488677.5771532279</v>
+        <v>224096.8874148118</v>
       </c>
       <c r="I64">
         <v>62</v>
@@ -2259,25 +2259,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>67847.47853334095</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1241.528652145741</v>
       </c>
       <c r="D65">
-        <v>13855.4217565384</v>
+        <v>199692.2370054817</v>
       </c>
       <c r="E65">
-        <v>6111991.662594769</v>
+        <v>2846513.004647226</v>
       </c>
       <c r="F65">
-        <v>1527997.915648692</v>
+        <v>711628.2511618064</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>7584755.992814513</v>
       </c>
       <c r="H65">
-        <v>488828.1574169871</v>
+        <v>225830.4629800102</v>
       </c>
       <c r="I65">
         <v>63</v>
@@ -2288,25 +2288,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>66706.50522028342</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>12069.92926213913</v>
+        <v>180573.6070076117</v>
       </c>
       <c r="E66">
-        <v>6113420.056590289</v>
+        <v>2863713.910217684</v>
       </c>
       <c r="F66">
-        <v>1528355.014147572</v>
+        <v>715928.4775544211</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>7585997.521466659</v>
       </c>
       <c r="H66">
-        <v>488959.3330075815</v>
+        <v>227721.040371778</v>
       </c>
       <c r="I66">
         <v>64</v>
@@ -2317,25 +2317,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>65762.23987977818</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>944.265340505222</v>
       </c>
       <c r="D67">
-        <v>10514.52600670883</v>
+        <v>157303.8122901359</v>
       </c>
       <c r="E67">
-        <v>6114664.379194633</v>
+        <v>2882329.745991664</v>
       </c>
       <c r="F67">
-        <v>1528666.094798658</v>
+        <v>720582.436497916</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>7587138.494779716</v>
       </c>
       <c r="H67">
-        <v>489073.6045272231</v>
+        <v>229097.1128174147</v>
       </c>
       <c r="I67">
         <v>65</v>
@@ -2346,25 +2346,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>64892.99988700778</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>9159.561315122637</v>
+        <v>142098.4950013019</v>
       </c>
       <c r="E68">
-        <v>6115748.350947902</v>
+        <v>2895944.804089352</v>
       </c>
       <c r="F68">
-        <v>1528937.087736975</v>
+        <v>723986.201022338</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>7588082.760120221</v>
       </c>
       <c r="H68">
-        <v>489173.1503355707</v>
+        <v>230586.3796793331</v>
       </c>
       <c r="I68">
         <v>66</v>
@@ -2375,25 +2375,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>64170.13202490212</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>722.8678621056575</v>
       </c>
       <c r="D69">
-        <v>7979.205475544978</v>
+        <v>123786.83327433</v>
       </c>
       <c r="E69">
-        <v>6116692.635619564</v>
+        <v>2910594.13347093</v>
       </c>
       <c r="F69">
-        <v>1529173.158904891</v>
+        <v>727648.5333677324</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>7588952.000112992</v>
       </c>
       <c r="H69">
-        <v>489259.8680758321</v>
+        <v>231675.5843271482</v>
       </c>
       <c r="I69">
         <v>67</v>
@@ -2404,25 +2404,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>63503.78635917088</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>6950.957347253099</v>
+        <v>111733.9014282894</v>
       </c>
       <c r="E70">
-        <v>6117515.234122197</v>
+        <v>2921347.849770032</v>
       </c>
       <c r="F70">
-        <v>1529378.808530549</v>
+        <v>730336.962442508</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>7589674.867975098</v>
       </c>
       <c r="H70">
-        <v>489335.4108495651</v>
+        <v>232847.5306776744</v>
       </c>
       <c r="I70">
         <v>68</v>
@@ -2433,25 +2433,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>62947.55410162879</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>556.2322575420916</v>
       </c>
       <c r="D71">
-        <v>6055.21542106069</v>
+        <v>97335.20279062327</v>
       </c>
       <c r="E71">
-        <v>6118231.827663152</v>
+        <v>2932866.808680164</v>
       </c>
       <c r="F71">
-        <v>1529557.956915788</v>
+        <v>733216.702170041</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>7590341.21364083</v>
       </c>
       <c r="H71">
-        <v>489401.2187297758</v>
+        <v>233707.8279816025</v>
       </c>
       <c r="I71">
         <v>69</v>
@@ -2462,25 +2462,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>62434.24558476597</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>5274.904155460086</v>
+        <v>87804.87432293256</v>
       </c>
       <c r="E72">
-        <v>6118856.076675632</v>
+        <v>2941346.704073841</v>
       </c>
       <c r="F72">
-        <v>1529714.019168908</v>
+        <v>735336.6760184603</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>7590897.445898371</v>
       </c>
       <c r="H72">
-        <v>489458.5462130521</v>
+        <v>234629.3446944131</v>
       </c>
       <c r="I72">
         <v>70</v>
@@ -2491,25 +2491,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>62004.49835938963</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>429.747225376329</v>
       </c>
       <c r="D73">
-        <v>4595.148465323477</v>
+        <v>76489.8131988433</v>
       </c>
       <c r="E73">
-        <v>6119399.881227741</v>
+        <v>2950398.752973112</v>
       </c>
       <c r="F73">
-        <v>1529849.970306935</v>
+        <v>737599.6882432781</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>7591410.754415234</v>
       </c>
       <c r="H73">
-        <v>489508.4861340506</v>
+        <v>235307.7363259073</v>
       </c>
       <c r="I73">
         <v>71</v>
@@ -2520,25 +2520,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>61607.56082261386</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>4002.990157936431</v>
+        <v>68968.3367754794</v>
       </c>
       <c r="E74">
-        <v>6119873.60787365</v>
+        <v>2957077.281921525</v>
       </c>
       <c r="F74">
-        <v>1529968.401968413</v>
+        <v>739269.3204803814</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>7591840.50164061</v>
       </c>
       <c r="H74">
-        <v>489551.9904982193</v>
+        <v>236031.900237849</v>
       </c>
       <c r="I74">
         <v>72</v>
@@ -2549,25 +2549,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>61274.47560836691</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>333.0852142469462</v>
       </c>
       <c r="D75">
-        <v>3487.140910779675</v>
+        <v>60080.66451059803</v>
       </c>
       <c r="E75">
-        <v>6120286.287271376</v>
+        <v>2964187.419733431</v>
       </c>
       <c r="F75">
-        <v>1530071.571817844</v>
+        <v>741046.8549333577</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>7592237.439177386</v>
       </c>
       <c r="H75">
-        <v>489589.888629892</v>
+        <v>236566.1825537221</v>
       </c>
       <c r="I75">
         <v>73</v>
@@ -2578,25 +2578,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>60966.60142097993</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>3037.767082070954</v>
+        <v>54153.15321030794</v>
       </c>
       <c r="E76">
-        <v>6120645.786334342</v>
+        <v>2969442.19629497</v>
       </c>
       <c r="F76">
-        <v>1530161.446583586</v>
+        <v>742360.5490737425</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>7592570.524391633</v>
       </c>
       <c r="H76">
-        <v>489622.9029817101</v>
+        <v>237134.9935786745</v>
       </c>
       <c r="I76">
         <v>74</v>
@@ -2607,25 +2607,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>60707.78768429239</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>258.8137366875424</v>
       </c>
       <c r="D77">
-        <v>2646.302251907171</v>
+        <v>47174.65408526825</v>
       </c>
       <c r="E77">
-        <v>6120958.958198474</v>
+        <v>2975024.995595002</v>
       </c>
       <c r="F77">
-        <v>1530239.739549618</v>
+        <v>743756.2488987504</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>7592878.39857902</v>
       </c>
       <c r="H77">
-        <v>489651.6629067474</v>
+        <v>237555.3757035976</v>
       </c>
       <c r="I77">
         <v>75</v>
@@ -2636,25 +2636,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>60468.42811777475</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2305.283920475835</v>
+        <v>42508.4786069092</v>
       </c>
       <c r="E78">
-        <v>6121231.772863619</v>
+        <v>2979156.474620253</v>
       </c>
       <c r="F78">
-        <v>1530307.943215905</v>
+        <v>744789.1186550632</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>7593137.212315707</v>
       </c>
       <c r="H78">
-        <v>489676.7166558779</v>
+        <v>238001.9996476001</v>
       </c>
       <c r="I78">
         <v>76</v>
@@ -2665,25 +2665,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>60266.92775686822</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>201.5003609065395</v>
       </c>
       <c r="D79">
-        <v>2008.211250311423</v>
+        <v>37030.58187921473</v>
       </c>
       <c r="E79">
-        <v>6121469.43099975</v>
+        <v>2983538.792002409</v>
       </c>
       <c r="F79">
-        <v>1530367.357749938</v>
+        <v>745884.6980006022</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>7593376.571882226</v>
       </c>
       <c r="H79">
-        <v>489698.5418290895</v>
+        <v>238332.5179696202</v>
       </c>
       <c r="I79">
         <v>77</v>
@@ -2694,25 +2694,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>60080.48998916666</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1749.421140735209</v>
+        <v>33360.47231144325</v>
       </c>
       <c r="E80">
-        <v>6121676.463087413</v>
+        <v>2986785.230159512</v>
       </c>
       <c r="F80">
-        <v>1530419.115771853</v>
+        <v>746696.3075398781</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>7593578.072243132</v>
       </c>
       <c r="H80">
-        <v>489717.55447998</v>
+        <v>238683.1033601927</v>
       </c>
       <c r="I80">
         <v>78</v>
@@ -2723,25 +2723,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>59923.36790038057</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>157.1220887860837</v>
       </c>
       <c r="D81">
-        <v>1523.980272083764</v>
+        <v>29061.44237440159</v>
       </c>
       <c r="E81">
-        <v>6121856.815782334</v>
+        <v>2990224.454109145</v>
       </c>
       <c r="F81">
-        <v>1530464.203945583</v>
+        <v>747556.1135272863</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>7593764.510010833</v>
       </c>
       <c r="H81">
-        <v>489734.117046993</v>
+        <v>238942.818412761</v>
       </c>
       <c r="I81">
         <v>79</v>
@@ -2752,25 +2752,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>59777.93952145475</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1327.591061763691</v>
+        <v>26176.68010444912</v>
       </c>
       <c r="E82">
-        <v>6122013.927150589</v>
+        <v>2992774.304299277</v>
       </c>
       <c r="F82">
-        <v>1530503.481787647</v>
+        <v>748193.5760748192</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>7593921.632099619</v>
       </c>
       <c r="H82">
-        <v>489748.5452625867</v>
+        <v>239217.9563287316</v>
       </c>
       <c r="I82">
         <v>80</v>
@@ -2781,25 +2781,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>59655.27270496007</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>122.6668164946816</v>
       </c>
       <c r="D83">
-        <v>1156.509739371463</v>
+        <v>22803.39658583454</v>
       </c>
       <c r="E83">
-        <v>6122150.792208502</v>
+        <v>2995472.931114168</v>
       </c>
       <c r="F83">
-        <v>1530537.698052126</v>
+        <v>748868.2327785421</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>7594067.060478545</v>
       </c>
       <c r="H83">
-        <v>489761.1141720472</v>
+        <v>239421.9443439422</v>
       </c>
       <c r="I83">
         <v>81</v>
@@ -2810,25 +2810,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>59541.70354113584</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1007.474979143182</v>
+        <v>20537.09202420296</v>
       </c>
       <c r="E84">
-        <v>6122270.020016684</v>
+        <v>2997474.963547729</v>
       </c>
       <c r="F84">
-        <v>1530567.505004171</v>
+        <v>749368.7408869322</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>7594189.72729504</v>
       </c>
       <c r="H84">
-        <v>489772.0633766802</v>
+        <v>239637.8344891335</v>
       </c>
       <c r="I84">
         <v>82</v>
@@ -2839,25 +2839,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>59445.84478427034</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>95.85875686550628</v>
       </c>
       <c r="D85">
-        <v>877.6457292535966</v>
+        <v>17890.55954685722</v>
       </c>
       <c r="E85">
-        <v>6122373.883416597</v>
+        <v>2999592.189529606</v>
       </c>
       <c r="F85">
-        <v>1530593.470854149</v>
+        <v>749898.0473824015</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>7594303.296458865</v>
       </c>
       <c r="H85">
-        <v>489781.6016013348</v>
+        <v>239797.9970838183</v>
       </c>
       <c r="I85">
         <v>83</v>
@@ -2868,25 +2868,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>59357.07589074053</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>764.5470528033909</v>
+        <v>16110.83322773126</v>
       </c>
       <c r="E86">
-        <v>6122464.362357757</v>
+        <v>3001163.672705222</v>
       </c>
       <c r="F86">
-        <v>1530616.090589439</v>
+        <v>750290.9181763056</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>7594399.15521573</v>
       </c>
       <c r="H86">
-        <v>489789.9106733277</v>
+        <v>239967.3751623685</v>
       </c>
       <c r="I86">
         <v>84</v>
@@ -2897,25 +2897,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>59282.11027929466</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>74.96561144586873</v>
       </c>
       <c r="D87">
-        <v>666.0229480606857</v>
+        <v>14034.69492518857</v>
       </c>
       <c r="E87">
-        <v>6122543.181641551</v>
+        <v>3002824.583347257</v>
       </c>
       <c r="F87">
-        <v>1530635.795410388</v>
+        <v>750706.1458368142</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>7594487.92410926</v>
       </c>
       <c r="H87">
-        <v>489797.1489886206</v>
+        <v>240093.0938164178</v>
       </c>
       <c r="I87">
         <v>85</v>
@@ -2926,25 +2926,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>59212.67720104023</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>580.1952485683295</v>
+        <v>12637.5124602179</v>
       </c>
       <c r="E88">
-        <v>6122611.843801145</v>
+        <v>3004057.848270994</v>
       </c>
       <c r="F88">
-        <v>1530652.960950286</v>
+        <v>751014.4620677484</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>7594562.889720705</v>
       </c>
       <c r="H88">
-        <v>489803.4545313241</v>
+        <v>240225.9666677805</v>
       </c>
       <c r="I88">
         <v>86</v>
@@ -2955,25 +2955,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>59154.0164145259</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>58.66078651430799</v>
       </c>
       <c r="D89">
-        <v>505.4278196291118</v>
+        <v>11008.96704008672</v>
       </c>
       <c r="E89">
-        <v>6122671.657744297</v>
+        <v>3005360.684607098</v>
       </c>
       <c r="F89">
-        <v>1530667.914436074</v>
+        <v>751340.1711517746</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>7594632.32279896</v>
       </c>
       <c r="H89">
-        <v>489808.9475040917</v>
+        <v>240324.6278616795</v>
       </c>
       <c r="I89">
         <v>87</v>
@@ -2984,25 +2984,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>59099.67743813075</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>440.2953686459788</v>
+        <v>9912.368540806825</v>
       </c>
       <c r="E90">
-        <v>6122723.763705084</v>
+        <v>3006328.36321685</v>
       </c>
       <c r="F90">
-        <v>1530680.940926271</v>
+        <v>751582.0908042125</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>7594690.983585474</v>
       </c>
       <c r="H90">
-        <v>489813.7326195437</v>
+        <v>240428.8547685679</v>
       </c>
       <c r="I90">
         <v>88</v>
@@ -3013,25 +3013,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>59053.75402708104</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>45.92341104970572</v>
       </c>
       <c r="D91">
-        <v>383.5562747483011</v>
+        <v>8635.001460805945</v>
       </c>
       <c r="E91">
-        <v>6122769.154980201</v>
+        <v>3007350.256880851</v>
       </c>
       <c r="F91">
-        <v>1530692.28874505</v>
+        <v>751837.5642202126</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>7594745.322561869</v>
       </c>
       <c r="H91">
-        <v>489817.9010964067</v>
+        <v>240506.269057348</v>
       </c>
       <c r="I91">
         <v>89</v>
@@ -3042,25 +3042,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>59011.20944393021</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>334.1289197549633</v>
+        <v>7774.483684993467</v>
       </c>
       <c r="E92">
-        <v>6122808.696864197</v>
+        <v>3008109.445496861</v>
       </c>
       <c r="F92">
-        <v>1530702.174216049</v>
+        <v>752027.3613742153</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>7594791.245972919</v>
       </c>
       <c r="H92">
-        <v>489821.5323984161</v>
+        <v>240588.020550468</v>
       </c>
       <c r="I92">
         <v>90</v>
@@ -3071,25 +3071,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>58975.24464309715</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>35.96480083306373</v>
       </c>
       <c r="D93">
-        <v>291.0710692710762</v>
+        <v>6772.617230741732</v>
       </c>
       <c r="E93">
-        <v>6122843.143144582</v>
+        <v>3008910.938660263</v>
       </c>
       <c r="F93">
-        <v>1530710.785786146</v>
+        <v>752227.7346650657</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>7594833.790556069</v>
       </c>
       <c r="H93">
-        <v>489824.6957491357</v>
+        <v>240648.7556397489</v>
       </c>
       <c r="I93">
         <v>91</v>
@@ -3100,25 +3100,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>58941.9231561127</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>253.5619108598551</v>
+        <v>6097.45570791927</v>
       </c>
       <c r="E94">
-        <v>6122873.150471312</v>
+        <v>3009506.496908775</v>
       </c>
       <c r="F94">
-        <v>1530718.287617828</v>
+        <v>752376.6242271936</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>7594869.755356903</v>
       </c>
       <c r="H94">
-        <v>489827.4514515666</v>
+        <v>240712.875092821</v>
       </c>
       <c r="I94">
         <v>92</v>
@@ -3129,25 +3129,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>58913.74941344214</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>28.17374267056454</v>
       </c>
       <c r="D95">
-        <v>220.8864068830697</v>
+        <v>5311.701106383281</v>
       </c>
       <c r="E95">
-        <v>6122899.290874494</v>
+        <v>3010135.100590003</v>
       </c>
       <c r="F95">
-        <v>1530724.822718624</v>
+        <v>752533.7751475008</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>7594903.076843888</v>
       </c>
       <c r="H95">
-        <v>489829.852037705</v>
+        <v>240760.519752702</v>
       </c>
       <c r="I95">
         <v>93</v>
@@ -3158,25 +3158,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>58887.64463666987</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>192.4216637280349</v>
+        <v>4782.031356062787</v>
       </c>
       <c r="E96">
-        <v>6122922.062669018</v>
+        <v>3010602.259205814</v>
       </c>
       <c r="F96">
-        <v>1530730.515667255</v>
+        <v>752650.5648014535</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>7594931.250586558</v>
       </c>
       <c r="H96">
-        <v>489831.9432699595</v>
+        <v>240810.8080472003</v>
       </c>
       <c r="I96">
         <v>94</v>
@@ -3187,25 +3187,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>58865.56925653318</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>22.07538013669505</v>
       </c>
       <c r="D97">
-        <v>167.6250575775149</v>
+        <v>4165.790201930985</v>
       </c>
       <c r="E97">
-        <v>6122941.899953938</v>
+        <v>3011095.252129119</v>
       </c>
       <c r="F97">
-        <v>1530735.474988485</v>
+        <v>752773.8130322798</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>7594957.35536333</v>
       </c>
       <c r="H97">
-        <v>489833.7650135215</v>
+        <v>240848.1807364651</v>
       </c>
       <c r="I97">
         <v>95</v>
@@ -3216,25 +3216,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>58845.11394102433</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>146.0238903639176</v>
+        <v>3750.29764673329</v>
       </c>
       <c r="E98">
-        <v>6122959.180887709</v>
+        <v>3011461.670729794</v>
       </c>
       <c r="F98">
-        <v>1530739.795221927</v>
+        <v>752865.4176824484</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>7594979.430743467</v>
       </c>
       <c r="H98">
-        <v>489835.3519963151</v>
+        <v>240887.6201703296</v>
       </c>
       <c r="I98">
         <v>96</v>
@@ -3245,25 +3245,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>58827.8138761026</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>17.3000649217309</v>
       </c>
       <c r="D99">
-        <v>127.2063787190829</v>
+        <v>3267.011867515082</v>
       </c>
       <c r="E99">
-        <v>6122974.234897025</v>
+        <v>3011848.299353168</v>
       </c>
       <c r="F99">
-        <v>1530743.558724256</v>
+        <v>752962.0748382921</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>7594999.886058976</v>
       </c>
       <c r="H99">
-        <v>489836.7344710167</v>
+        <v>240916.9336583835</v>
       </c>
       <c r="I99">
         <v>97</v>
@@ -3274,25 +3274,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>58811.78277236388</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>110.8138041418815</v>
+        <v>2941.10728916061</v>
       </c>
       <c r="E100">
-        <v>6122987.348956686</v>
+        <v>3012135.68795078</v>
       </c>
       <c r="F100">
-        <v>1530746.837239172</v>
+        <v>753033.921987695</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>7595017.186123897</v>
       </c>
       <c r="H100">
-        <v>489837.938791762</v>
+        <v>240947.8639482535</v>
       </c>
       <c r="I100">
         <v>98</v>
@@ -3303,25 +3303,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>58798.22317482824</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>13.55959753564357</v>
       </c>
       <c r="D101">
-        <v>96.53367474215449</v>
+        <v>2562.098617877027</v>
       </c>
       <c r="E101">
-        <v>6122998.773060206</v>
+        <v>3012438.894887807</v>
       </c>
       <c r="F101">
-        <v>1530749.693265052</v>
+        <v>753109.7237219518</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>7595033.217227636</v>
       </c>
       <c r="H101">
-        <v>489838.9879165349</v>
+        <v>240970.8550360624</v>
       </c>
       <c r="I101">
         <v>99</v>
@@ -3332,28 +3332,2928 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>58785.65777303329</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>84.09376820321705</v>
+        <v>2306.479398671021</v>
       </c>
       <c r="E102">
-        <v>6123008.724985437</v>
+        <v>3012664.290262636</v>
       </c>
       <c r="F102">
-        <v>1530752.181246359</v>
+        <v>753166.0725656591</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>7595046.776825172</v>
       </c>
       <c r="H102">
-        <v>489839.9018448165</v>
+        <v>240995.1115910246</v>
       </c>
       <c r="I102">
         <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>58775.02876955146</v>
+      </c>
+      <c r="C103">
+        <v>10.62900348184419</v>
+      </c>
+      <c r="D103">
+        <v>2009.252672038157</v>
+      </c>
+      <c r="E103">
+        <v>3012902.071643943</v>
+      </c>
+      <c r="F103">
+        <v>753225.5179109857</v>
+      </c>
+      <c r="G103">
+        <v>7595059.342226966</v>
+      </c>
+      <c r="H103">
+        <v>241013.1432210109</v>
+      </c>
+      <c r="I103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>58765.17884219024</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1808.769646553314</v>
+      </c>
+      <c r="E104">
+        <v>3013078.841209005</v>
+      </c>
+      <c r="F104">
+        <v>753269.7103022513</v>
+      </c>
+      <c r="G104">
+        <v>7595069.971230448</v>
+      </c>
+      <c r="H104">
+        <v>241032.1657315154</v>
+      </c>
+      <c r="I104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>58756.84635008223</v>
+      </c>
+      <c r="C105">
+        <v>8.332492108008255</v>
+      </c>
+      <c r="D105">
+        <v>1575.680774574795</v>
+      </c>
+      <c r="E105">
+        <v>3013265.312306588</v>
+      </c>
+      <c r="F105">
+        <v>753316.328076647</v>
+      </c>
+      <c r="G105">
+        <v>7595079.821157809</v>
+      </c>
+      <c r="H105">
+        <v>241046.3072967204</v>
+      </c>
+      <c r="I105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>58749.1244542509</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>1418.446627068313</v>
+      </c>
+      <c r="E106">
+        <v>3013403.943134944</v>
+      </c>
+      <c r="F106">
+        <v>753350.9857837361</v>
+      </c>
+      <c r="G106">
+        <v>7595088.153649918</v>
+      </c>
+      <c r="H106">
+        <v>241061.224984527</v>
+      </c>
+      <c r="I106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>58742.59185547798</v>
+      </c>
+      <c r="C107">
+        <v>6.532598772931674</v>
+      </c>
+      <c r="D107">
+        <v>1235.65711327085</v>
+      </c>
+      <c r="E107">
+        <v>3013550.174745983</v>
+      </c>
+      <c r="F107">
+        <v>753387.5436864956</v>
+      </c>
+      <c r="G107">
+        <v>7595095.875545749</v>
+      </c>
+      <c r="H107">
+        <v>241072.3154507955</v>
+      </c>
+      <c r="I107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>58736.53786520291</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>1112.345351817769</v>
+      </c>
+      <c r="E108">
+        <v>3013658.893426383</v>
+      </c>
+      <c r="F108">
+        <v>753414.7233565958</v>
+      </c>
+      <c r="G108">
+        <v>7595102.408144522</v>
+      </c>
+      <c r="H108">
+        <v>241084.0139796786</v>
+      </c>
+      <c r="I108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>58731.41610105356</v>
+      </c>
+      <c r="C109">
+        <v>5.121764149357103</v>
+      </c>
+      <c r="D109">
+        <v>969.0018786453765</v>
+      </c>
+      <c r="E109">
+        <v>3013773.568204922</v>
+      </c>
+      <c r="F109">
+        <v>753443.3920512304</v>
+      </c>
+      <c r="G109">
+        <v>7595108.462134797</v>
+      </c>
+      <c r="H109">
+        <v>241092.7114741107</v>
+      </c>
+      <c r="I109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>58726.66952361945</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>872.295968788525</v>
+      </c>
+      <c r="E110">
+        <v>3013858.827606074</v>
+      </c>
+      <c r="F110">
+        <v>753464.7069015184</v>
+      </c>
+      <c r="G110">
+        <v>7595113.583898947</v>
+      </c>
+      <c r="H110">
+        <v>241101.8854563937</v>
+      </c>
+      <c r="I110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>58722.6537351822</v>
+      </c>
+      <c r="C111">
+        <v>4.015788437249187</v>
+      </c>
+      <c r="D111">
+        <v>759.8866944601068</v>
+      </c>
+      <c r="E111">
+        <v>3013948.755025536</v>
+      </c>
+      <c r="F111">
+        <v>753487.1887563841</v>
+      </c>
+      <c r="G111">
+        <v>7595118.330476381</v>
+      </c>
+      <c r="H111">
+        <v>241108.7062084859</v>
+      </c>
+      <c r="I111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>58718.93208160622</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>684.047382898362</v>
+      </c>
+      <c r="E112">
+        <v>3014015.616428397</v>
+      </c>
+      <c r="F112">
+        <v>753503.9041070992</v>
+      </c>
+      <c r="G112">
+        <v>7595122.346264818</v>
+      </c>
+      <c r="H112">
+        <v>241115.9004020429</v>
+      </c>
+      <c r="I112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>58715.78334798406</v>
+      </c>
+      <c r="C113">
+        <v>3.148733622147514</v>
+      </c>
+      <c r="D113">
+        <v>595.8969469578515</v>
+      </c>
+      <c r="E113">
+        <v>3014086.136777149</v>
+      </c>
+      <c r="F113">
+        <v>753521.5341942871</v>
+      </c>
+      <c r="G113">
+        <v>7595126.067918394</v>
+      </c>
+      <c r="H113">
+        <v>241121.2493142717</v>
+      </c>
+      <c r="I113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>58712.86522038781</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>536.4225365415194</v>
+      </c>
+      <c r="E114">
+        <v>3014138.569794456</v>
+      </c>
+      <c r="F114">
+        <v>753534.6424486141</v>
+      </c>
+      <c r="G114">
+        <v>7595129.216652016</v>
+      </c>
+      <c r="H114">
+        <v>241126.8909421719</v>
+      </c>
+      <c r="I114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>58710.39627276038</v>
+      </c>
+      <c r="C115">
+        <v>2.468947627432287</v>
+      </c>
+      <c r="D115">
+        <v>467.2959210078185</v>
+      </c>
+      <c r="E115">
+        <v>3014193.871086883</v>
+      </c>
+      <c r="F115">
+        <v>753548.4677717208</v>
+      </c>
+      <c r="G115">
+        <v>7595132.134779613</v>
+      </c>
+      <c r="H115">
+        <v>241131.0855835565</v>
+      </c>
+      <c r="I115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>58708.10813182128</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>420.6556016004249</v>
+      </c>
+      <c r="E116">
+        <v>3014234.989013263</v>
+      </c>
+      <c r="F116">
+        <v>753558.7472533156</v>
+      </c>
+      <c r="G116">
+        <v>7595134.603727239</v>
+      </c>
+      <c r="H116">
+        <v>241135.5096869507</v>
+      </c>
+      <c r="I116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>58706.17217195706</v>
+      </c>
+      <c r="C117">
+        <v>1.935959864226209</v>
+      </c>
+      <c r="D117">
+        <v>366.4474055178959</v>
+      </c>
+      <c r="E117">
+        <v>3014278.355570129</v>
+      </c>
+      <c r="F117">
+        <v>753569.5888925322</v>
+      </c>
+      <c r="G117">
+        <v>7595136.891868179</v>
+      </c>
+      <c r="H117">
+        <v>241138.799121061</v>
+      </c>
+      <c r="I117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>58704.37797864418</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>329.8719753943337</v>
+      </c>
+      <c r="E118">
+        <v>3014310.600036769</v>
+      </c>
+      <c r="F118">
+        <v>753577.6500091923</v>
+      </c>
+      <c r="G118">
+        <v>7595138.827828043</v>
+      </c>
+      <c r="H118">
+        <v>241142.2684456103</v>
+      </c>
+      <c r="I118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>58702.85992366961</v>
+      </c>
+      <c r="C119">
+        <v>1.518054974573771</v>
+      </c>
+      <c r="D119">
+        <v>287.3627002146515</v>
+      </c>
+      <c r="E119">
+        <v>3014344.607456913</v>
+      </c>
+      <c r="F119">
+        <v>753586.1518642282</v>
+      </c>
+      <c r="G119">
+        <v>7595140.622021356</v>
+      </c>
+      <c r="H119">
+        <v>241144.8480029416</v>
+      </c>
+      <c r="I119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>58701.45302783283</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>258.6803544037617</v>
+      </c>
+      <c r="E120">
+        <v>3014369.893294211</v>
+      </c>
+      <c r="F120">
+        <v>753592.4733235526</v>
+      </c>
+      <c r="G120">
+        <v>7595142.14007633</v>
+      </c>
+      <c r="H120">
+        <v>241147.568596553</v>
+      </c>
+      <c r="I120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>58700.26265258955</v>
+      </c>
+      <c r="C121">
+        <v>1.190375243286654</v>
+      </c>
+      <c r="D121">
+        <v>225.3452571867822</v>
+      </c>
+      <c r="E121">
+        <v>3014396.561371984</v>
+      </c>
+      <c r="F121">
+        <v>753599.1403429961</v>
+      </c>
+      <c r="G121">
+        <v>7595143.546972167</v>
+      </c>
+      <c r="H121">
+        <v>241149.5914635368</v>
+      </c>
+      <c r="I121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>58699.15943912071</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>202.8527547834658</v>
+      </c>
+      <c r="E122">
+        <v>3014416.390244877</v>
+      </c>
+      <c r="F122">
+        <v>753604.0975612192</v>
+      </c>
+      <c r="G122">
+        <v>7595144.73734741</v>
+      </c>
+      <c r="H122">
+        <v>241151.7249097587</v>
+      </c>
+      <c r="I122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>58698.22600347922</v>
+      </c>
+      <c r="C123">
+        <v>0.9334356414873449</v>
+      </c>
+      <c r="D123">
+        <v>176.7119358680707</v>
+      </c>
+      <c r="E123">
+        <v>3014437.302900009</v>
+      </c>
+      <c r="F123">
+        <v>753609.3257250022</v>
+      </c>
+      <c r="G123">
+        <v>7595145.84056088</v>
+      </c>
+      <c r="H123">
+        <v>241153.3112195902</v>
+      </c>
+      <c r="I123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>58697.36091404294</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>159.0735344113864</v>
+      </c>
+      <c r="E124">
+        <v>3014452.852441236</v>
+      </c>
+      <c r="F124">
+        <v>753613.2131103091</v>
+      </c>
+      <c r="G124">
+        <v>7595146.773996521</v>
+      </c>
+      <c r="H124">
+        <v>241154.9842320007</v>
+      </c>
+      <c r="I124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>58696.62895278729</v>
+      </c>
+      <c r="C125">
+        <v>0.7319612556473964</v>
+      </c>
+      <c r="D125">
+        <v>138.5743676057954</v>
+      </c>
+      <c r="E125">
+        <v>3014469.251774681</v>
+      </c>
+      <c r="F125">
+        <v>753617.3129436702</v>
+      </c>
+      <c r="G125">
+        <v>7595147.639085957</v>
+      </c>
+      <c r="H125">
+        <v>241156.2281952989</v>
+      </c>
+      <c r="I125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>58695.95058459618</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>124.7425463316402</v>
+      </c>
+      <c r="E126">
+        <v>3014481.445495258</v>
+      </c>
+      <c r="F126">
+        <v>753620.3613738144</v>
+      </c>
+      <c r="G126">
+        <v>7595148.371047213</v>
+      </c>
+      <c r="H126">
+        <v>241157.5401419745</v>
+      </c>
+      <c r="I126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>58695.37660780397</v>
+      </c>
+      <c r="C127">
+        <v>0.5739767922093003</v>
+      </c>
+      <c r="D127">
+        <v>108.6674759280783</v>
+      </c>
+      <c r="E127">
+        <v>3014494.305551581</v>
+      </c>
+      <c r="F127">
+        <v>753623.5763878952</v>
+      </c>
+      <c r="G127">
+        <v>7595149.049415404</v>
+      </c>
+      <c r="H127">
+        <v>241158.5156396206</v>
+      </c>
+      <c r="I127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>58694.84465597654</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>97.82075433167446</v>
+      </c>
+      <c r="E128">
+        <v>3014503.867671753</v>
+      </c>
+      <c r="F128">
+        <v>753625.9669179383</v>
+      </c>
+      <c r="G128">
+        <v>7595149.623392196</v>
+      </c>
+      <c r="H128">
+        <v>241159.5444441265</v>
+      </c>
+      <c r="I128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>58694.39456267209</v>
+      </c>
+      <c r="C129">
+        <v>0.4500933044472217</v>
+      </c>
+      <c r="D129">
+        <v>85.21498702089167</v>
+      </c>
+      <c r="E129">
+        <v>3014513.952285602</v>
+      </c>
+      <c r="F129">
+        <v>753628.4880714004</v>
+      </c>
+      <c r="G129">
+        <v>7595150.155344023</v>
+      </c>
+      <c r="H129">
+        <v>241160.3094137403</v>
+      </c>
+      <c r="I129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>58693.97742348756</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>76.70915469544468</v>
+      </c>
+      <c r="E130">
+        <v>3014521.450737454</v>
+      </c>
+      <c r="F130">
+        <v>753630.3626843634</v>
+      </c>
+      <c r="G130">
+        <v>7595150.605437328</v>
+      </c>
+      <c r="H130">
+        <v>241161.1161828481</v>
+      </c>
+      <c r="I130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>58693.6244741874</v>
+      </c>
+      <c r="C131">
+        <v>0.3529493001650212</v>
+      </c>
+      <c r="D131">
+        <v>66.82395434809357</v>
+      </c>
+      <c r="E131">
+        <v>3014529.358897732</v>
+      </c>
+      <c r="F131">
+        <v>753632.3397244329</v>
+      </c>
+      <c r="G131">
+        <v>7595151.022576513</v>
+      </c>
+      <c r="H131">
+        <v>241161.7160589963</v>
+      </c>
+      <c r="I131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>58693.29736621917</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>60.15382104330595</v>
+      </c>
+      <c r="E132">
+        <v>3014535.239050189</v>
+      </c>
+      <c r="F132">
+        <v>753633.8097625474</v>
+      </c>
+      <c r="G132">
+        <v>7595151.375525813</v>
+      </c>
+      <c r="H132">
+        <v>241162.3487118185</v>
+      </c>
+      <c r="I132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>58693.02059347768</v>
+      </c>
+      <c r="C133">
+        <v>0.276772741507759</v>
+      </c>
+      <c r="D133">
+        <v>52.40203998102427</v>
+      </c>
+      <c r="E133">
+        <v>3014541.44047504</v>
+      </c>
+      <c r="F133">
+        <v>753635.3601187599</v>
+      </c>
+      <c r="G133">
+        <v>7595151.70263378</v>
+      </c>
+      <c r="H133">
+        <v>241162.8191240152</v>
+      </c>
+      <c r="I133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>58692.76408460108</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>47.17143747547593</v>
+      </c>
+      <c r="E134">
+        <v>3014546.051582339</v>
+      </c>
+      <c r="F134">
+        <v>753636.5128955847</v>
+      </c>
+      <c r="G134">
+        <v>7595151.979406523</v>
+      </c>
+      <c r="H134">
+        <v>241163.3152380032</v>
+      </c>
+      <c r="I134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>58692.54704685982</v>
+      </c>
+      <c r="C135">
+        <v>0.2170377412617803</v>
+      </c>
+      <c r="D135">
+        <v>41.0926439863682</v>
+      </c>
+      <c r="E135">
+        <v>3014550.91461713</v>
+      </c>
+      <c r="F135">
+        <v>753637.7286542824</v>
+      </c>
+      <c r="G135">
+        <v>7595152.235915399</v>
+      </c>
+      <c r="H135">
+        <v>241163.6841265871</v>
+      </c>
+      <c r="I135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>58692.34589939312</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>36.99090013770218</v>
+      </c>
+      <c r="E136">
+        <v>3014554.530560375</v>
+      </c>
+      <c r="F136">
+        <v>753638.6326400938</v>
+      </c>
+      <c r="G136">
+        <v>7595152.45295314</v>
+      </c>
+      <c r="H136">
+        <v>241164.0731693704</v>
+      </c>
+      <c r="I136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>58692.17570393925</v>
+      </c>
+      <c r="C137">
+        <v>0.1701954538675862</v>
+      </c>
+      <c r="D137">
+        <v>32.22403156325603</v>
+      </c>
+      <c r="E137">
+        <v>3014558.344055235</v>
+      </c>
+      <c r="F137">
+        <v>753639.5860138088</v>
+      </c>
+      <c r="G137">
+        <v>7595152.654100607</v>
+      </c>
+      <c r="H137">
+        <v>241164.36244483</v>
+      </c>
+      <c r="I137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>58692.01796916928</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>29.00752049106304</v>
+      </c>
+      <c r="E138">
+        <v>3014561.179608272</v>
+      </c>
+      <c r="F138">
+        <v>753640.294902068</v>
+      </c>
+      <c r="G138">
+        <v>7595152.824296061</v>
+      </c>
+      <c r="H138">
+        <v>241164.6675244188</v>
+      </c>
+      <c r="I138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>58691.88450606044</v>
+      </c>
+      <c r="C139">
+        <v>0.1334631088481033</v>
+      </c>
+      <c r="D139">
+        <v>25.26943795355492</v>
+      </c>
+      <c r="E139">
+        <v>3014564.170074302</v>
+      </c>
+      <c r="F139">
+        <v>753641.0425185754</v>
+      </c>
+      <c r="G139">
+        <v>7595152.98203083</v>
+      </c>
+      <c r="H139">
+        <v>241164.8943686618</v>
+      </c>
+      <c r="I139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>58691.76081427579</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>22.74711130313262</v>
+      </c>
+      <c r="E140">
+        <v>3014566.393659537</v>
+      </c>
+      <c r="F140">
+        <v>753641.5984148842</v>
+      </c>
+      <c r="G140">
+        <v>7595153.115493939</v>
+      </c>
+      <c r="H140">
+        <v>241165.1336059441</v>
+      </c>
+      <c r="I140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>58691.6561556618</v>
+      </c>
+      <c r="C141">
+        <v>0.1046586140027008</v>
+      </c>
+      <c r="D141">
+        <v>19.81578252695574</v>
+      </c>
+      <c r="E141">
+        <v>3014568.738722558</v>
+      </c>
+      <c r="F141">
+        <v>753642.1846806394</v>
+      </c>
+      <c r="G141">
+        <v>7595153.239185724</v>
+      </c>
+      <c r="H141">
+        <v>241165.3114927629</v>
+      </c>
+      <c r="I141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>58691.55915946513</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>17.83782291115979</v>
+      </c>
+      <c r="E142">
+        <v>3014570.482414099</v>
+      </c>
+      <c r="F142">
+        <v>753642.6206035247</v>
+      </c>
+      <c r="G142">
+        <v>7595153.343844338</v>
+      </c>
+      <c r="H142">
+        <v>241165.4990978046</v>
+      </c>
+      <c r="I142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>58691.47708858662</v>
+      </c>
+      <c r="C143">
+        <v>0.0820708785192068</v>
+      </c>
+      <c r="D143">
+        <v>15.53913439168044</v>
+      </c>
+      <c r="E143">
+        <v>3014572.321364915</v>
+      </c>
+      <c r="F143">
+        <v>753643.0803412287</v>
+      </c>
+      <c r="G143">
+        <v>7595153.440840535</v>
+      </c>
+      <c r="H143">
+        <v>241165.6385931279</v>
+      </c>
+      <c r="I143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>58691.40102638478</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>13.98805736281339</v>
+      </c>
+      <c r="E144">
+        <v>3014573.688733002</v>
+      </c>
+      <c r="F144">
+        <v>753643.4221832505</v>
+      </c>
+      <c r="G144">
+        <v>7595153.522911414</v>
+      </c>
+      <c r="H144">
+        <v>241165.7857091932</v>
+      </c>
+      <c r="I144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>58691.33666824707</v>
+      </c>
+      <c r="C145">
+        <v>0.06435813771464841</v>
+      </c>
+      <c r="D145">
+        <v>12.18547265111064</v>
+      </c>
+      <c r="E145">
+        <v>3014575.130800772</v>
+      </c>
+      <c r="F145">
+        <v>753643.7827001929</v>
+      </c>
+      <c r="G145">
+        <v>7595153.598973615</v>
+      </c>
+      <c r="H145">
+        <v>241165.8950986402</v>
+      </c>
+      <c r="I145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>58691.27702196941</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>10.96914887171144</v>
+      </c>
+      <c r="E146">
+        <v>3014576.203063326</v>
+      </c>
+      <c r="F146">
+        <v>753644.0507658316</v>
+      </c>
+      <c r="G146">
+        <v>7595153.663331753</v>
+      </c>
+      <c r="H146">
+        <v>241166.0104640617</v>
+      </c>
+      <c r="I146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>58691.226553739</v>
+      </c>
+      <c r="C147">
+        <v>0.05046823042208245</v>
+      </c>
+      <c r="D147">
+        <v>9.55559875937749</v>
+      </c>
+      <c r="E147">
+        <v>3014577.333903417</v>
+      </c>
+      <c r="F147">
+        <v>753644.3334758542</v>
+      </c>
+      <c r="G147">
+        <v>7595153.72297803</v>
+      </c>
+      <c r="H147">
+        <v>241166.0962450661</v>
+      </c>
+      <c r="I147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>58691.1797804396</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>8.601782022345903</v>
+      </c>
+      <c r="E148">
+        <v>3014578.174750031</v>
+      </c>
+      <c r="F148">
+        <v>753644.5436875076</v>
+      </c>
+      <c r="G148">
+        <v>7595153.773446261</v>
+      </c>
+      <c r="H148">
+        <v>241166.1867122734</v>
+      </c>
+      <c r="I148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>58691.14020435189</v>
+      </c>
+      <c r="C149">
+        <v>0.03957608771322048</v>
+      </c>
+      <c r="D149">
+        <v>7.493304957610606</v>
+      </c>
+      <c r="E149">
+        <v>3014579.061531682</v>
+      </c>
+      <c r="F149">
+        <v>753644.7653829206</v>
+      </c>
+      <c r="G149">
+        <v>7595153.820219561</v>
+      </c>
+      <c r="H149">
+        <v>241166.2539800025</v>
+      </c>
+      <c r="I149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>58691.10352574522</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>6.745341104728557</v>
+      </c>
+      <c r="E150">
+        <v>3014579.72090652</v>
+      </c>
+      <c r="F150">
+        <v>753644.9302266299</v>
+      </c>
+      <c r="G150">
+        <v>7595153.859795648</v>
+      </c>
+      <c r="H150">
+        <v>241166.3249225346</v>
+      </c>
+      <c r="I150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>58691.07249102897</v>
+      </c>
+      <c r="C151">
+        <v>0.03103471625783552</v>
+      </c>
+      <c r="D151">
+        <v>5.876096117005805</v>
+      </c>
+      <c r="E151">
+        <v>3014580.416302511</v>
+      </c>
+      <c r="F151">
+        <v>753645.1040756276</v>
+      </c>
+      <c r="G151">
+        <v>7595153.896474254</v>
+      </c>
+      <c r="H151">
+        <v>241166.3776725216</v>
+      </c>
+      <c r="I151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>58691.04372845287</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>5.289558019702344</v>
+      </c>
+      <c r="E152">
+        <v>3014580.933370822</v>
+      </c>
+      <c r="F152">
+        <v>753645.2333427055</v>
+      </c>
+      <c r="G152">
+        <v>7595153.927508971</v>
+      </c>
+      <c r="H152">
+        <v>241166.4333042009</v>
+      </c>
+      <c r="I152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>58691.01939169028</v>
+      </c>
+      <c r="C153">
+        <v>0.02433676258444263</v>
+      </c>
+      <c r="D153">
+        <v>4.607913944998434</v>
+      </c>
+      <c r="E153">
+        <v>3014581.478686082</v>
+      </c>
+      <c r="F153">
+        <v>753645.3696715204</v>
+      </c>
+      <c r="G153">
+        <v>7595153.956271547</v>
+      </c>
+      <c r="H153">
+        <v>241166.4746696658</v>
+      </c>
+      <c r="I153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>58690.99683669025</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>4.147962700061651</v>
+      </c>
+      <c r="E154">
+        <v>3014581.884160488</v>
+      </c>
+      <c r="F154">
+        <v>753645.471040122</v>
+      </c>
+      <c r="G154">
+        <v>7595153.98060831</v>
+      </c>
+      <c r="H154">
+        <v>241166.5182948865</v>
+      </c>
+      <c r="I154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>58690.97775231639</v>
+      </c>
+      <c r="C155">
+        <v>0.01908437385716806</v>
+      </c>
+      <c r="D155">
+        <v>3.613431424280511</v>
+      </c>
+      <c r="E155">
+        <v>3014582.311785508</v>
+      </c>
+      <c r="F155">
+        <v>753645.5779463771</v>
+      </c>
+      <c r="G155">
+        <v>7595154.00316331</v>
+      </c>
+      <c r="H155">
+        <v>241166.550732839</v>
+      </c>
+      <c r="I155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>58690.9600651622</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>3.25274704221338</v>
+      </c>
+      <c r="E156">
+        <v>3014582.629750237</v>
+      </c>
+      <c r="F156">
+        <v>753645.6574375592</v>
+      </c>
+      <c r="G156">
+        <v>7595154.022247683</v>
+      </c>
+      <c r="H156">
+        <v>241166.5849428407</v>
+      </c>
+      <c r="I156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>58690.94509959808</v>
+      </c>
+      <c r="C157">
+        <v>0.01496556411241304</v>
+      </c>
+      <c r="D157">
+        <v>2.833578608938459</v>
+      </c>
+      <c r="E157">
+        <v>3014582.965084983</v>
+      </c>
+      <c r="F157">
+        <v>753645.7412712458</v>
+      </c>
+      <c r="G157">
+        <v>7595154.039934838</v>
+      </c>
+      <c r="H157">
+        <v>241166.6103800189</v>
+      </c>
+      <c r="I157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>58690.93122970371</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>2.550737292763941</v>
+      </c>
+      <c r="E158">
+        <v>3014583.214426403</v>
+      </c>
+      <c r="F158">
+        <v>753645.8036066007</v>
+      </c>
+      <c r="G158">
+        <v>7595154.054900402</v>
+      </c>
+      <c r="H158">
+        <v>241166.6372067987</v>
+      </c>
+      <c r="I158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>58690.91949402207</v>
+      </c>
+      <c r="C159">
+        <v>0.01173568163724108</v>
+      </c>
+      <c r="D159">
+        <v>2.222034033387144</v>
+      </c>
+      <c r="E159">
+        <v>3014583.477389011</v>
+      </c>
+      <c r="F159">
+        <v>753645.8693472527</v>
+      </c>
+      <c r="G159">
+        <v>7595154.068770296</v>
+      </c>
+      <c r="H159">
+        <v>241166.6571541122</v>
+      </c>
+      <c r="I159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>58690.90861754138</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>2.000235668201375</v>
+      </c>
+      <c r="E160">
+        <v>3014583.672917433</v>
+      </c>
+      <c r="F160">
+        <v>753645.9182293582</v>
+      </c>
+      <c r="G160">
+        <v>7595154.080505978</v>
+      </c>
+      <c r="H160">
+        <v>241166.6781911209</v>
+      </c>
+      <c r="I160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>58690.899414665</v>
+      </c>
+      <c r="C161">
+        <v>0.009202876369925471</v>
+      </c>
+      <c r="D161">
+        <v>1.742473339824909</v>
+      </c>
+      <c r="E161">
+        <v>3014583.879127295</v>
+      </c>
+      <c r="F161">
+        <v>753645.9697818238</v>
+      </c>
+      <c r="G161">
+        <v>7595154.091382459</v>
+      </c>
+      <c r="H161">
+        <v>241166.6938333946</v>
+      </c>
+      <c r="I161">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>58690.89088555588</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>1.568543612688861</v>
+      </c>
+      <c r="E162">
+        <v>3014584.032456665</v>
+      </c>
+      <c r="F162">
+        <v>753646.0081141662</v>
+      </c>
+      <c r="G162">
+        <v>7595154.100585335</v>
+      </c>
+      <c r="H162">
+        <v>241166.7103301836</v>
+      </c>
+      <c r="I162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>58690.88366885197</v>
+      </c>
+      <c r="C163">
+        <v>0.007216703919786009</v>
+      </c>
+      <c r="D163">
+        <v>1.366411703837204</v>
+      </c>
+      <c r="E163">
+        <v>3014584.194162192</v>
+      </c>
+      <c r="F163">
+        <v>753646.0485405481</v>
+      </c>
+      <c r="G163">
+        <v>7595154.109114444</v>
+      </c>
+      <c r="H163">
+        <v>241166.7225965332</v>
+      </c>
+      <c r="I163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>58690.87698050217</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>1.230019584525491</v>
+      </c>
+      <c r="E164">
+        <v>3014584.31439993</v>
+      </c>
+      <c r="F164">
+        <v>753646.0785999825</v>
+      </c>
+      <c r="G164">
+        <v>7595154.116331148</v>
+      </c>
+      <c r="H164">
+        <v>241166.7355329754</v>
+      </c>
+      <c r="I164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>58690.87132131298</v>
+      </c>
+      <c r="C165">
+        <v>0.005659189188100412</v>
+      </c>
+      <c r="D165">
+        <v>1.071511906107258</v>
+      </c>
+      <c r="E165">
+        <v>3014584.441206073</v>
+      </c>
+      <c r="F165">
+        <v>753646.1103015183</v>
+      </c>
+      <c r="G165">
+        <v>7595154.123019498</v>
+      </c>
+      <c r="H165">
+        <v>241166.7451519944</v>
+      </c>
+      <c r="I165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>58690.86607644804</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0.9645560102663181</v>
+      </c>
+      <c r="E166">
+        <v>3014584.535494033</v>
+      </c>
+      <c r="F166">
+        <v>753646.1338735083</v>
+      </c>
+      <c r="G166">
+        <v>7595154.128678687</v>
+      </c>
+      <c r="H166">
+        <v>241166.7552964859</v>
+      </c>
+      <c r="I166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>58690.86163862933</v>
+      </c>
+      <c r="C167">
+        <v>0.00443781871373984</v>
+      </c>
+      <c r="D167">
+        <v>0.8402575553350915</v>
+      </c>
+      <c r="E167">
+        <v>3014584.634932797</v>
+      </c>
+      <c r="F167">
+        <v>753646.1587331992</v>
+      </c>
+      <c r="G167">
+        <v>7595154.133923552</v>
+      </c>
+      <c r="H167">
+        <v>241166.7628395227</v>
+      </c>
+      <c r="I167">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>58690.85752571505</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0.7563849422767684</v>
+      </c>
+      <c r="E168">
+        <v>3014584.708871474</v>
+      </c>
+      <c r="F168">
+        <v>753646.1772178685</v>
+      </c>
+      <c r="G168">
+        <v>7595154.138361371</v>
+      </c>
+      <c r="H168">
+        <v>241166.7707946238</v>
+      </c>
+      <c r="I168">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>58690.85404566959</v>
+      </c>
+      <c r="C169">
+        <v>0.003480045458074629</v>
+      </c>
+      <c r="D169">
+        <v>0.6589126559008962</v>
+      </c>
+      <c r="E169">
+        <v>3014584.786849303</v>
+      </c>
+      <c r="F169">
+        <v>753646.1967123258</v>
+      </c>
+      <c r="G169">
+        <v>7595154.142474285</v>
+      </c>
+      <c r="H169">
+        <v>241166.7767097179</v>
+      </c>
+      <c r="I169">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>58690.85082040743</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0.5931414792334777</v>
+      </c>
+      <c r="E170">
+        <v>3014584.844830491</v>
+      </c>
+      <c r="F170">
+        <v>753646.2112076227</v>
+      </c>
+      <c r="G170">
+        <v>7595154.14595433</v>
+      </c>
+      <c r="H170">
+        <v>241166.7829479442</v>
+      </c>
+      <c r="I170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>58690.84809142783</v>
+      </c>
+      <c r="C171">
+        <v>0.002728979597032955</v>
+      </c>
+      <c r="D171">
+        <v>0.5167057216002976</v>
+      </c>
+      <c r="E171">
+        <v>3014584.905979097</v>
+      </c>
+      <c r="F171">
+        <v>753646.2264947742</v>
+      </c>
+      <c r="G171">
+        <v>7595154.149179593</v>
+      </c>
+      <c r="H171">
+        <v>241166.7875864393</v>
+      </c>
+      <c r="I171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>58690.84556224401</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0.4651293193143249</v>
+      </c>
+      <c r="E172">
+        <v>3014584.951446749</v>
+      </c>
+      <c r="F172">
+        <v>753646.2378616873</v>
+      </c>
+      <c r="G172">
+        <v>7595154.151908572</v>
+      </c>
+      <c r="H172">
+        <v>241166.7924783278</v>
+      </c>
+      <c r="I172">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>58690.84342223466</v>
+      </c>
+      <c r="C173">
+        <v>0.002140009345343319</v>
+      </c>
+      <c r="D173">
+        <v>0.4051899740418603</v>
+      </c>
+      <c r="E173">
+        <v>3014584.999398225</v>
+      </c>
+      <c r="F173">
+        <v>753646.2498495564</v>
+      </c>
+      <c r="G173">
+        <v>7595154.154437756</v>
+      </c>
+      <c r="H173">
+        <v>241166.7961157399</v>
+      </c>
+      <c r="I173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>58690.84143890101</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0.3647448218606419</v>
+      </c>
+      <c r="E174">
+        <v>3014585.035053021</v>
+      </c>
+      <c r="F174">
+        <v>753646.2587632553</v>
+      </c>
+      <c r="G174">
+        <v>7595154.156577765</v>
+      </c>
+      <c r="H174">
+        <v>241166.799951858</v>
+      </c>
+      <c r="I174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>58690.83976074994</v>
+      </c>
+      <c r="C175">
+        <v>0.001678151086583263</v>
+      </c>
+      <c r="D175">
+        <v>0.3177416231672603</v>
+      </c>
+      <c r="E175">
+        <v>3014585.07265558</v>
+      </c>
+      <c r="F175">
+        <v>753646.2681638951</v>
+      </c>
+      <c r="G175">
+        <v>7595154.158561099</v>
+      </c>
+      <c r="H175">
+        <v>241166.8028042417</v>
+      </c>
+      <c r="I175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>58690.83820546069</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0.2860253682286173</v>
+      </c>
+      <c r="E176">
+        <v>3014585.100615337</v>
+      </c>
+      <c r="F176">
+        <v>753646.2751538341</v>
+      </c>
+      <c r="G176">
+        <v>7595154.16023925</v>
+      </c>
+      <c r="H176">
+        <v>241166.8058124464</v>
+      </c>
+      <c r="I176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>58690.8368894893</v>
+      </c>
+      <c r="C177">
+        <v>0.001315971405955812</v>
+      </c>
+      <c r="D177">
+        <v>0.2491664290238987</v>
+      </c>
+      <c r="E177">
+        <v>3014585.130102488</v>
+      </c>
+      <c r="F177">
+        <v>753646.2825256221</v>
+      </c>
+      <c r="G177">
+        <v>7595154.16179454</v>
+      </c>
+      <c r="H177">
+        <v>241166.8080492269</v>
+      </c>
+      <c r="I177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>58690.8356698636</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0.2242951955716239</v>
+      </c>
+      <c r="E178">
+        <v>3014585.152027952</v>
+      </c>
+      <c r="F178">
+        <v>753646.2880069881</v>
+      </c>
+      <c r="G178">
+        <v>7595154.16311051</v>
+      </c>
+      <c r="H178">
+        <v>241166.8104081991</v>
+      </c>
+      <c r="I178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>58690.83463790599</v>
+      </c>
+      <c r="C179">
+        <v>0.001031957595025828</v>
+      </c>
+      <c r="D179">
+        <v>0.1953911755237342</v>
+      </c>
+      <c r="E179">
+        <v>3014585.175151168</v>
+      </c>
+      <c r="F179">
+        <v>753646.2937877921</v>
+      </c>
+      <c r="G179">
+        <v>7595154.164330136</v>
+      </c>
+      <c r="H179">
+        <v>241166.8121622362</v>
+      </c>
+      <c r="I179">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>58690.83368150072</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0.1758876669279039</v>
+      </c>
+      <c r="E180">
+        <v>3014585.192344666</v>
+      </c>
+      <c r="F180">
+        <v>753646.2980861664</v>
+      </c>
+      <c r="G180">
+        <v>7595154.165362094</v>
+      </c>
+      <c r="H180">
+        <v>241166.8140120935</v>
+      </c>
+      <c r="I180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>58690.8328722609</v>
+      </c>
+      <c r="C181">
+        <v>0.0008092398374641349</v>
+      </c>
+      <c r="D181">
+        <v>0.1532217304681225</v>
+      </c>
+      <c r="E181">
+        <v>3014585.210477415</v>
+      </c>
+      <c r="F181">
+        <v>753646.3026193539</v>
+      </c>
+      <c r="G181">
+        <v>7595154.166318499</v>
+      </c>
+      <c r="H181">
+        <v>241166.8153875732</v>
+      </c>
+      <c r="I181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>58690.83212226762</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0.1379274811090412</v>
+      </c>
+      <c r="E182">
+        <v>3014585.223960201</v>
+      </c>
+      <c r="F182">
+        <v>753646.3059900503</v>
+      </c>
+      <c r="G182">
+        <v>7595154.167127739</v>
+      </c>
+      <c r="H182">
+        <v>241166.8168381932</v>
+      </c>
+      <c r="I182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>58690.83148767845</v>
+      </c>
+      <c r="C183">
+        <v>0.0006345891748906315</v>
+      </c>
+      <c r="D183">
+        <v>0.1201533211723091</v>
+      </c>
+      <c r="E183">
+        <v>3014585.238179529</v>
+      </c>
+      <c r="F183">
+        <v>753646.3095448823</v>
+      </c>
+      <c r="G183">
+        <v>7595154.167877733</v>
+      </c>
+      <c r="H183">
+        <v>241166.8179168161</v>
+      </c>
+      <c r="I183">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>58690.8308995492</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0.1081598861603199</v>
+      </c>
+      <c r="E184">
+        <v>3014585.248752452</v>
+      </c>
+      <c r="F184">
+        <v>753646.3121881129</v>
+      </c>
+      <c r="G184">
+        <v>7595154.168512322</v>
+      </c>
+      <c r="H184">
+        <v>241166.8190543623</v>
+      </c>
+      <c r="I184">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>58690.83040191748</v>
+      </c>
+      <c r="C185">
+        <v>0.0004976317332334138</v>
+      </c>
+      <c r="D185">
+        <v>0.09422175650048492</v>
+      </c>
+      <c r="E185">
+        <v>3014585.259902956</v>
+      </c>
+      <c r="F185">
+        <v>753646.314975739</v>
+      </c>
+      <c r="G185">
+        <v>7595154.16910045</v>
+      </c>
+      <c r="H185">
+        <v>241166.8199001961</v>
+      </c>
+      <c r="I185">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>58690.82994071866</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0.0848167520627707</v>
+      </c>
+      <c r="E186">
+        <v>3014585.268194024</v>
+      </c>
+      <c r="F186">
+        <v>753646.3170485059</v>
+      </c>
+      <c r="G186">
+        <v>7595154.169598082</v>
+      </c>
+      <c r="H186">
+        <v>241166.8207922365</v>
+      </c>
+      <c r="I186">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>58690.82955048612</v>
+      </c>
+      <c r="C187">
+        <v>0.0003902325357861446</v>
+      </c>
+      <c r="D187">
+        <v>0.07388675824024871</v>
+      </c>
+      <c r="E187">
+        <v>3014585.276938018</v>
+      </c>
+      <c r="F187">
+        <v>753646.3192345046</v>
+      </c>
+      <c r="G187">
+        <v>7595154.170059281</v>
+      </c>
+      <c r="H187">
+        <v>241166.8214555219</v>
+      </c>
+      <c r="I187">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>58690.82918882354</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0.06651154769851123</v>
+      </c>
+      <c r="E188">
+        <v>3014585.283439703</v>
+      </c>
+      <c r="F188">
+        <v>753646.3208599257</v>
+      </c>
+      <c r="G188">
+        <v>7595154.170449514</v>
+      </c>
+      <c r="H188">
+        <v>241166.8221550415</v>
+      </c>
+      <c r="I188">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>58690.82888281123</v>
+      </c>
+      <c r="C189">
+        <v>0.000306012302448582</v>
+      </c>
+      <c r="D189">
+        <v>0.057940471964167</v>
+      </c>
+      <c r="E189">
+        <v>3014585.290296564</v>
+      </c>
+      <c r="F189">
+        <v>753646.322574141</v>
+      </c>
+      <c r="G189">
+        <v>7595154.170811176</v>
+      </c>
+      <c r="H189">
+        <v>241166.8226751762</v>
+      </c>
+      <c r="I189">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>58690.82859920289</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0.0521569839470141</v>
+      </c>
+      <c r="E190">
+        <v>3014585.295395051</v>
+      </c>
+      <c r="F190">
+        <v>753646.3238487627</v>
+      </c>
+      <c r="G190">
+        <v>7595154.171117188</v>
+      </c>
+      <c r="H190">
+        <v>241166.8232237251</v>
+      </c>
+      <c r="I190">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>58690.82835923436</v>
+      </c>
+      <c r="C191">
+        <v>0.0002399685338612617</v>
+      </c>
+      <c r="D191">
+        <v>0.04543572312909991</v>
+      </c>
+      <c r="E191">
+        <v>3014585.300772059</v>
+      </c>
+      <c r="F191">
+        <v>753646.3251930148</v>
+      </c>
+      <c r="G191">
+        <v>7595154.171400798</v>
+      </c>
+      <c r="H191">
+        <v>241166.8236316041</v>
+      </c>
+      <c r="I191">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>58690.82813683455</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0.04090043109609443</v>
+      </c>
+      <c r="E192">
+        <v>3014585.304770188</v>
+      </c>
+      <c r="F192">
+        <v>753646.326192547</v>
+      </c>
+      <c r="G192">
+        <v>7595154.171640766</v>
+      </c>
+      <c r="H192">
+        <v>241166.8240617648</v>
+      </c>
+      <c r="I192">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>58690.82794865617</v>
+      </c>
+      <c r="C193">
+        <v>0.0001881783735246784</v>
+      </c>
+      <c r="D193">
+        <v>0.03562975698577297</v>
+      </c>
+      <c r="E193">
+        <v>3014585.308986727</v>
+      </c>
+      <c r="F193">
+        <v>753646.3272466817</v>
+      </c>
+      <c r="G193">
+        <v>7595154.171863166</v>
+      </c>
+      <c r="H193">
+        <v>241166.824381615</v>
+      </c>
+      <c r="I193">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>58690.82777425483</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0.03207327450534111</v>
+      </c>
+      <c r="E194">
+        <v>3014585.312121977</v>
+      </c>
+      <c r="F194">
+        <v>753646.3280304942</v>
+      </c>
+      <c r="G194">
+        <v>7595154.172051344</v>
+      </c>
+      <c r="H194">
+        <v>241166.8247189382</v>
+      </c>
+      <c r="I194">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>58690.82762668924</v>
+      </c>
+      <c r="C195">
+        <v>0.0001475655984788853</v>
+      </c>
+      <c r="D195">
+        <v>0.02794012057424045</v>
+      </c>
+      <c r="E195">
+        <v>3014585.3154285</v>
+      </c>
+      <c r="F195">
+        <v>753646.3288571249</v>
+      </c>
+      <c r="G195">
+        <v>7595154.172225745</v>
+      </c>
+      <c r="H195">
+        <v>241166.8249697581</v>
+      </c>
+      <c r="I195">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>58690.8274899273</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0.02515120036051983</v>
+      </c>
+      <c r="E196">
+        <v>3014585.317887098</v>
+      </c>
+      <c r="F196">
+        <v>753646.3294717744</v>
+      </c>
+      <c r="G196">
+        <v>7595154.172373311</v>
+      </c>
+      <c r="H196">
+        <v>241166.82523428</v>
+      </c>
+      <c r="I196">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>58690.8273742094</v>
+      </c>
+      <c r="C197">
+        <v>0.0001157178982477853</v>
+      </c>
+      <c r="D197">
+        <v>0.02191006629344253</v>
+      </c>
+      <c r="E197">
+        <v>3014585.320480005</v>
+      </c>
+      <c r="F197">
+        <v>753646.3301200012</v>
+      </c>
+      <c r="G197">
+        <v>7595154.172510073</v>
+      </c>
+      <c r="H197">
+        <v>241166.8254309678</v>
+      </c>
+      <c r="I197">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>58690.82726696352</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0.01972305258042434</v>
+      </c>
+      <c r="E198">
+        <v>3014585.322407987</v>
+      </c>
+      <c r="F198">
+        <v>753646.3306019967</v>
+      </c>
+      <c r="G198">
+        <v>7595154.17262579</v>
+      </c>
+      <c r="H198">
+        <v>241166.8256384004</v>
+      </c>
+      <c r="I198">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>58690.82717621993</v>
+      </c>
+      <c r="C199">
+        <v>9.074358878510793E-05</v>
+      </c>
+      <c r="D199">
+        <v>0.01718142209325625</v>
+      </c>
+      <c r="E199">
+        <v>3014585.324441291</v>
+      </c>
+      <c r="F199">
+        <v>753646.3311103228</v>
+      </c>
+      <c r="G199">
+        <v>7595154.172733037</v>
+      </c>
+      <c r="H199">
+        <v>241166.825792639</v>
+      </c>
+      <c r="I199">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>58690.82709211991</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0.01546641104503007</v>
+      </c>
+      <c r="E200">
+        <v>3014585.325953175</v>
+      </c>
+      <c r="F200">
+        <v>753646.3314882937</v>
+      </c>
+      <c r="G200">
+        <v>7595154.17282378</v>
+      </c>
+      <c r="H200">
+        <v>241166.8259553033</v>
+      </c>
+      <c r="I200">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>58690.82702096066</v>
+      </c>
+      <c r="C201">
+        <v>7.115925052411017E-05</v>
+      </c>
+      <c r="D201">
+        <v>0.0134733168381963</v>
+      </c>
+      <c r="E201">
+        <v>3014585.32754765</v>
+      </c>
+      <c r="F201">
+        <v>753646.3318869126</v>
+      </c>
+      <c r="G201">
+        <v>7595154.172907881</v>
+      </c>
+      <c r="H201">
+        <v>241166.826076254</v>
+      </c>
+      <c r="I201">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>58690.82695501117</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0.01212844054538986</v>
+      </c>
+      <c r="E202">
+        <v>3014585.328733239</v>
+      </c>
+      <c r="F202">
+        <v>753646.3321833098</v>
+      </c>
+      <c r="G202">
+        <v>7595154.172979039</v>
+      </c>
+      <c r="H202">
+        <v>241166.826203812</v>
+      </c>
+      <c r="I202">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
